--- a/table_outputs_formatted.xlsx
+++ b/table_outputs_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1985751\Documents\GitHub\fea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6842CB2-2F6C-4F42-AFC7-31149491E0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41046FD4-7942-4E66-A4DC-8055FCC74069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -64,6 +64,40 @@
     <author>SADLER Alexandra</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{AB280BFA-81C1-4947-941E-5371F10F814E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SADLER Alexandra:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Want input from co-authors on what datasets to use for India and Brazil</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>SADLER Alexandra</author>
+  </authors>
+  <commentList>
     <comment ref="D4" authorId="0" shapeId="0" xr:uid="{70368BC3-B68B-42C6-9ABB-3086DCCFF298}">
       <text>
         <r>
@@ -92,7 +126,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>SADLER Alexandra</author>
@@ -127,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="644">
   <si>
     <t>country</t>
   </si>
@@ -2053,6 +2087,12 @@
   </si>
   <si>
     <t>105 (13%)</t>
+  </si>
+  <si>
+    <t>&lt;0.01</t>
+  </si>
+  <si>
+    <t>p-values (Mann-Whitney)</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2103,7 @@
     <numFmt numFmtId="164" formatCode="0.000000000000000000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2137,6 +2177,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2224,7 +2270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2369,7 +2415,56 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2405,63 +2500,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2923,8 +2977,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2953,7 +3007,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2985,7 +3039,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="73" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -3019,7 +3073,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="73" t="s">
         <v>74</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3053,7 +3107,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="73" t="s">
         <v>508</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3070,7 +3124,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="76"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="22" t="s">
         <v>215</v>
       </c>
@@ -3484,10 +3538,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3497,9 +3551,11 @@
     <col min="4" max="4" width="15.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="53" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="53" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>487</v>
       </c>
@@ -3518,9 +3574,12 @@
       <c r="F1" s="42" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+      <c r="G1" s="42" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -3538,9 +3597,10 @@
       <c r="F2" s="43" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="77"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="74"/>
       <c r="B3" s="13" t="s">
         <v>583</v>
       </c>
@@ -3556,9 +3616,10 @@
       <c r="F3" s="44" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
+      <c r="G3" s="44"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="74"/>
       <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
@@ -3574,8 +3635,10 @@
       <c r="F4" s="44" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="44"/>
+      <c r="I4" s="70"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="75"/>
       <c r="B5" s="15" t="s">
         <v>499</v>
@@ -3592,9 +3655,12 @@
       <c r="F5" s="45" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+      <c r="G5" s="45" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="73" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3612,9 +3678,10 @@
       <c r="F6" s="43" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="77" t="s">
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="74" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -3632,9 +3699,10 @@
       <c r="F7" s="44" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="74" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -3652,8 +3720,9 @@
       <c r="F8" s="44" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="75" t="s">
         <v>41</v>
       </c>
@@ -3672,9 +3741,12 @@
       <c r="F9" s="45" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="74" t="s">
+      <c r="G9" s="45" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="73" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -3692,9 +3764,10 @@
       <c r="F10" s="43" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="77" t="s">
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="74" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -3712,9 +3785,10 @@
       <c r="F11" s="44" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="77" t="s">
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="74" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -3732,8 +3806,9 @@
       <c r="F12" s="44" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="75" t="s">
         <v>74</v>
       </c>
@@ -3752,8 +3827,11 @@
       <c r="F13" s="45" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G13" s="45" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="51" t="s">
         <v>508</v>
       </c>
@@ -3769,6 +3847,9 @@
       </c>
       <c r="F14" s="54" t="s">
         <v>344</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4559,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="89" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -4499,7 +4580,7 @@
       <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="72"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
@@ -4518,7 +4599,7 @@
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="72"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
@@ -4537,7 +4618,7 @@
       <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="15" t="s">
         <v>499</v>
       </c>
@@ -4558,7 +4639,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="92" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -4579,7 +4660,7 @@
       <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="72"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="13" t="s">
         <v>66</v>
       </c>
@@ -4598,7 +4679,7 @@
       <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="78"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="15" t="s">
         <v>499</v>
       </c>
@@ -4619,7 +4700,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="92" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -4640,7 +4721,7 @@
       <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="89" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -4661,7 +4742,7 @@
       <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="89" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -4682,7 +4763,7 @@
       <c r="G11" s="44"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="77" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -4737,14 +4818,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4758,60 +4839,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="76" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="76" t="s">
         <v>488</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="78" t="s">
         <v>486</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="76" t="s">
         <v>489</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="71" t="s">
         <v>493</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="80" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="62" t="s">
         <v>490</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="62" t="s">
         <v>491</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="62" t="s">
         <v>492</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="62" t="s">
         <v>494</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="62" t="s">
         <v>495</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="62" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="43"/>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="94" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="43" t="s">
@@ -4823,18 +4904,18 @@
       <c r="G3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="13" t="s">
         <v>583</v>
       </c>
@@ -4851,18 +4932,18 @@
       <c r="G4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="J4" s="64" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="77"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="13" t="s">
         <v>32</v>
       </c>
@@ -4879,13 +4960,13 @@
       <c r="G5" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="J5" s="64" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4895,30 +4976,30 @@
         <v>499</v>
       </c>
       <c r="C6" s="45"/>
-      <c r="D6" s="90">
+      <c r="D6" s="68">
         <v>126</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="68" t="s">
         <v>625</v>
       </c>
-      <c r="F6" s="90" t="s">
+      <c r="F6" s="68" t="s">
         <v>626</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="68" t="s">
         <v>627</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="69" t="s">
         <v>629</v>
       </c>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="69" t="s">
         <v>628</v>
       </c>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="69" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="73" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -4937,18 +5018,18 @@
       <c r="G7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="63" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="77"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="13" t="s">
         <v>54</v>
       </c>
@@ -4965,18 +5046,18 @@
       <c r="G8" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="82" t="s">
+      <c r="J8" s="64" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="77"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="13" t="s">
         <v>66</v>
       </c>
@@ -4993,13 +5074,13 @@
       <c r="G9" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="64" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5021,18 +5102,18 @@
       <c r="G10" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="H10" s="88" t="s">
+      <c r="H10" s="66" t="s">
         <v>635</v>
       </c>
-      <c r="I10" s="88" t="s">
+      <c r="I10" s="66" t="s">
         <v>634</v>
       </c>
-      <c r="J10" s="88" t="s">
+      <c r="J10" s="66" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="73" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -5051,18 +5132,18 @@
       <c r="G11" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="81" t="s">
+      <c r="H11" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="81" t="s">
+      <c r="I11" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="81" t="s">
+      <c r="J11" s="63" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="77"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="13" t="s">
         <v>83</v>
       </c>
@@ -5079,18 +5160,18 @@
       <c r="G12" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="82" t="s">
+      <c r="H12" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="82" t="s">
+      <c r="I12" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="82" t="s">
+      <c r="J12" s="64" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="77"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="13" t="s">
         <v>89</v>
       </c>
@@ -5107,13 +5188,13 @@
       <c r="G13" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="I13" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="82" t="s">
+      <c r="J13" s="64" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5135,13 +5216,13 @@
       <c r="G14" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="H14" s="66" t="s">
         <v>624</v>
       </c>
-      <c r="I14" s="88" t="s">
+      <c r="I14" s="66" t="s">
         <v>623</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="66" t="s">
         <v>622</v>
       </c>
     </row>
@@ -5175,15 +5256,15 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="89"/>
+      <c r="F18" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5199,6 +5280,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5854,7 +5936,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -5889,7 +5971,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="77"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="13" t="s">
         <v>589</v>
       </c>
@@ -5922,7 +6004,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="13" t="s">
         <v>588</v>
       </c>
@@ -5988,7 +6070,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="73" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -6023,7 +6105,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="77"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="13" t="s">
         <v>589</v>
       </c>
@@ -6056,7 +6138,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="77"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="13" t="s">
         <v>588</v>
       </c>
@@ -6122,7 +6204,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="73" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -6157,7 +6239,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="77"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="13" t="s">
         <v>589</v>
       </c>
@@ -6190,7 +6272,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="77"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="13" t="s">
         <v>588</v>
       </c>
@@ -6256,7 +6338,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="73" t="s">
         <v>508</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -6291,7 +6373,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="77"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="13" t="s">
         <v>589</v>
       </c>
@@ -6324,7 +6406,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="77"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="13" t="s">
         <v>588</v>
       </c>
@@ -6357,7 +6439,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="76"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="18" t="s">
         <v>499</v>
       </c>
@@ -6474,7 +6556,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="93" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -6565,7 +6647,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
+      <c r="A3" s="93"/>
       <c r="B3" t="s">
         <v>589</v>
       </c>
@@ -6654,7 +6736,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
+      <c r="A4" s="93"/>
       <c r="B4" t="s">
         <v>588</v>
       </c>
@@ -6743,7 +6825,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="4" t="s">
         <v>499</v>
       </c>
@@ -6832,7 +6914,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="93" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
@@ -6923,7 +7005,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
+      <c r="A7" s="93"/>
       <c r="B7" t="s">
         <v>589</v>
       </c>
@@ -7012,7 +7094,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
+      <c r="A8" s="93"/>
       <c r="B8" t="s">
         <v>588</v>
       </c>
@@ -7101,7 +7183,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="4" t="s">
         <v>499</v>
       </c>
@@ -7190,7 +7272,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="93" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
@@ -7281,7 +7363,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
+      <c r="A11" s="93"/>
       <c r="B11" t="s">
         <v>589</v>
       </c>
@@ -7370,7 +7452,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
+      <c r="A12" s="93"/>
       <c r="B12" t="s">
         <v>588</v>
       </c>
@@ -7459,7 +7541,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="62"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="4" t="s">
         <v>499</v>
       </c>
@@ -7548,7 +7630,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="93" t="s">
         <v>508</v>
       </c>
       <c r="B14" t="s">
@@ -7639,7 +7721,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A15" s="62"/>
+      <c r="A15" s="93"/>
       <c r="B15" t="s">
         <v>589</v>
       </c>
@@ -7728,7 +7810,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
+      <c r="A16" s="93"/>
       <c r="B16" t="s">
         <v>588</v>
       </c>
@@ -7817,7 +7899,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="4" t="s">
         <v>499</v>
       </c>
@@ -7990,7 +8072,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="93" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -8049,7 +8131,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
+      <c r="A3" s="93"/>
       <c r="B3" t="s">
         <v>589</v>
       </c>
@@ -8106,7 +8188,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
+      <c r="A4" s="93"/>
       <c r="B4" t="s">
         <v>588</v>
       </c>
@@ -8163,7 +8245,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="4" t="s">
         <v>499</v>
       </c>
@@ -8244,7 +8326,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="93" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
@@ -8303,7 +8385,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
+      <c r="A7" s="93"/>
       <c r="B7" t="s">
         <v>589</v>
       </c>
@@ -8360,7 +8442,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
+      <c r="A8" s="93"/>
       <c r="B8" t="s">
         <v>588</v>
       </c>
@@ -8417,7 +8499,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="4" t="s">
         <v>499</v>
       </c>
@@ -8498,7 +8580,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="93" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
@@ -8557,7 +8639,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
+      <c r="A11" s="93"/>
       <c r="B11" t="s">
         <v>589</v>
       </c>
@@ -8614,7 +8696,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
+      <c r="A12" s="93"/>
       <c r="B12" t="s">
         <v>588</v>
       </c>
@@ -8671,7 +8753,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="62"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="4" t="s">
         <v>499</v>
       </c>
@@ -8752,7 +8834,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="93" t="s">
         <v>508</v>
       </c>
       <c r="B14" t="s">
@@ -8811,7 +8893,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="62"/>
+      <c r="A15" s="93"/>
       <c r="B15" t="s">
         <v>589</v>
       </c>
@@ -8868,7 +8950,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
+      <c r="A16" s="93"/>
       <c r="B16" t="s">
         <v>588</v>
       </c>
@@ -8925,7 +9007,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="4" t="s">
         <v>499</v>
       </c>
@@ -10031,8 +10113,8 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10075,10 +10157,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="80" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -10097,8 +10179,8 @@
       <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="13" t="s">
         <v>565</v>
       </c>
@@ -10115,8 +10197,8 @@
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="13" t="s">
         <v>566</v>
       </c>
@@ -10133,8 +10215,8 @@
       <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="67"/>
-      <c r="B5" s="65"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="15" t="s">
         <v>499</v>
       </c>
@@ -10155,8 +10237,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="67"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="84"/>
+      <c r="B6" s="80" t="s">
         <v>583</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -10175,8 +10257,8 @@
       <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="67"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="13" t="s">
         <v>565</v>
       </c>
@@ -10193,8 +10275,8 @@
       <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="67"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="13" t="s">
         <v>566</v>
       </c>
@@ -10211,8 +10293,8 @@
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="15" t="s">
         <v>499</v>
       </c>
@@ -10233,8 +10315,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="67"/>
-      <c r="B10" s="63" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="80" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -10253,8 +10335,8 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="13" t="s">
         <v>565</v>
       </c>
@@ -10271,8 +10353,8 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="67"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="13" t="s">
         <v>566</v>
       </c>
@@ -10289,8 +10371,8 @@
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="67"/>
-      <c r="B13" s="65"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="15" t="s">
         <v>499</v>
       </c>
@@ -10311,7 +10393,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="68"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="17" t="s">
         <v>507</v>
       </c>
@@ -10333,10 +10415,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="87" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -10355,8 +10437,8 @@
       <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="67"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="13" t="s">
         <v>565</v>
       </c>
@@ -10373,8 +10455,8 @@
       <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="13" t="s">
         <v>566</v>
       </c>
@@ -10391,8 +10473,8 @@
       <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
-      <c r="B18" s="65"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="15" t="s">
         <v>499</v>
       </c>
@@ -10413,8 +10495,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="84"/>
+      <c r="B19" s="80" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -10433,8 +10515,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="13" t="s">
         <v>565</v>
       </c>
@@ -10451,8 +10533,8 @@
       <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="13" t="s">
         <v>566</v>
       </c>
@@ -10469,8 +10551,8 @@
       <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="67"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="15" t="s">
         <v>499</v>
       </c>
@@ -10491,8 +10573,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="67"/>
-      <c r="B23" s="63" t="s">
+      <c r="A23" s="84"/>
+      <c r="B23" s="80" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -10511,8 +10593,8 @@
       <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="67"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="13" t="s">
         <v>565</v>
       </c>
@@ -10529,8 +10611,8 @@
       <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="67"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="13" t="s">
         <v>566</v>
       </c>
@@ -10547,8 +10629,8 @@
       <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="67"/>
-      <c r="B26" s="65"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="15" t="s">
         <v>499</v>
       </c>
@@ -10575,7 +10657,7 @@
       <c r="N26"/>
     </row>
     <row r="27" spans="1:14" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="68"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="17" t="s">
         <v>505</v>
       </c>
@@ -10602,10 +10684,10 @@
       <c r="M27"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="87" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -10625,8 +10707,8 @@
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="67"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="13" t="s">
         <v>565</v>
       </c>
@@ -10644,8 +10726,8 @@
       <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="67"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="13" t="s">
         <v>566</v>
       </c>
@@ -10662,8 +10744,8 @@
       <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="67"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="82"/>
       <c r="C31" s="15" t="s">
         <v>499</v>
       </c>
@@ -10684,8 +10766,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="67"/>
-      <c r="B32" s="63" t="s">
+      <c r="A32" s="84"/>
+      <c r="B32" s="80" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -10704,8 +10786,8 @@
       <c r="H32" s="34"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="67"/>
-      <c r="B33" s="64"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="13" t="s">
         <v>565</v>
       </c>
@@ -10722,8 +10804,8 @@
       <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="67"/>
-      <c r="B34" s="64"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="13" t="s">
         <v>566</v>
       </c>
@@ -10740,8 +10822,8 @@
       <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="67"/>
-      <c r="B35" s="65"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="15" t="s">
         <v>499</v>
       </c>
@@ -10762,8 +10844,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="67"/>
-      <c r="B36" s="63" t="s">
+      <c r="A36" s="84"/>
+      <c r="B36" s="80" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -10782,8 +10864,8 @@
       <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="67"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="13" t="s">
         <v>565</v>
       </c>
@@ -10800,8 +10882,8 @@
       <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="67"/>
-      <c r="B38" s="64"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="13" t="s">
         <v>566</v>
       </c>
@@ -10818,8 +10900,8 @@
       <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="67"/>
-      <c r="B39" s="65"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="15" t="s">
         <v>499</v>
       </c>
@@ -10840,7 +10922,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="68"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="17" t="s">
         <v>506</v>
       </c>
@@ -10848,13 +10930,13 @@
       <c r="D40" s="19">
         <v>195</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="18" t="s">
         <v>503</v>
       </c>
       <c r="F40" s="34">
         <v>8.9667659999999993E-3</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="18" t="s">
         <v>504</v>
       </c>
       <c r="H40" s="31">
@@ -11999,8 +12081,8 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B13"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12029,15 +12111,15 @@
       <c r="E1" s="40" t="s">
         <v>568</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="95" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="80" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -12054,8 +12136,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="72"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="13" t="s">
         <v>565</v>
       </c>
@@ -12070,8 +12152,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="72"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="13" t="s">
         <v>566</v>
       </c>
@@ -12086,8 +12168,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="72"/>
-      <c r="B5" s="65"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="15" t="s">
         <v>499</v>
       </c>
@@ -12102,8 +12184,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="72"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="89"/>
+      <c r="B6" s="80" t="s">
         <v>583</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -12120,8 +12202,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="72"/>
-      <c r="B7" s="64" t="s">
+      <c r="A7" s="89"/>
+      <c r="B7" s="81" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -12130,16 +12212,16 @@
       <c r="D7" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="96" t="s">
         <v>524</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="96" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="89"/>
+      <c r="B8" s="81" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -12148,16 +12230,16 @@
       <c r="D8" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="96" t="s">
         <v>524</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="96" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
-      <c r="B9" s="65" t="s">
+      <c r="A9" s="89"/>
+      <c r="B9" s="82" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -12174,8 +12256,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
-      <c r="B10" s="63" t="s">
+      <c r="A10" s="89"/>
+      <c r="B10" s="80" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -12192,8 +12274,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="72"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="81" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -12210,8 +12292,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="89"/>
+      <c r="B12" s="81" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -12228,8 +12310,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
-      <c r="B13" s="65" t="s">
+      <c r="A13" s="89"/>
+      <c r="B13" s="82" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -12246,7 +12328,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="73"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="41" t="s">
         <v>507</v>
       </c>
@@ -12262,10 +12344,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="87" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -12282,8 +12364,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="72"/>
-      <c r="B16" s="64" t="s">
+      <c r="A16" s="89"/>
+      <c r="B16" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -12300,8 +12382,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="64" t="s">
+      <c r="A17" s="89"/>
+      <c r="B17" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -12318,8 +12400,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="89"/>
+      <c r="B18" s="82" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -12336,8 +12418,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="89"/>
+      <c r="B19" s="80" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -12354,8 +12436,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
-      <c r="B20" s="64" t="s">
+      <c r="A20" s="89"/>
+      <c r="B20" s="81" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -12372,8 +12454,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
-      <c r="B21" s="64" t="s">
+      <c r="A21" s="89"/>
+      <c r="B21" s="81" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -12390,8 +12472,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="72"/>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="89"/>
+      <c r="B22" s="82" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -12408,8 +12490,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
-      <c r="B23" s="63" t="s">
+      <c r="A23" s="89"/>
+      <c r="B23" s="80" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -12426,8 +12508,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="72"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="89"/>
+      <c r="B24" s="81" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -12444,8 +12526,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="72"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="89"/>
+      <c r="B25" s="81" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -12462,8 +12544,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="72"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="89"/>
+      <c r="B26" s="82" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -12480,7 +12562,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="73"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="41" t="s">
         <v>505</v>
       </c>
@@ -12496,10 +12578,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="87" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -12516,8 +12598,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
-      <c r="B29" s="64" t="s">
+      <c r="A29" s="89"/>
+      <c r="B29" s="81" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -12534,8 +12616,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
-      <c r="B30" s="64" t="s">
+      <c r="A30" s="89"/>
+      <c r="B30" s="81" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -12552,8 +12634,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="72"/>
-      <c r="B31" s="65" t="s">
+      <c r="A31" s="89"/>
+      <c r="B31" s="82" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -12570,8 +12652,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="72"/>
-      <c r="B32" s="63" t="s">
+      <c r="A32" s="89"/>
+      <c r="B32" s="80" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -12588,8 +12670,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
-      <c r="B33" s="64" t="s">
+      <c r="A33" s="89"/>
+      <c r="B33" s="81" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -12606,8 +12688,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
-      <c r="B34" s="64" t="s">
+      <c r="A34" s="89"/>
+      <c r="B34" s="81" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -12624,8 +12706,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
-      <c r="B35" s="65" t="s">
+      <c r="A35" s="89"/>
+      <c r="B35" s="82" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -12642,8 +12724,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="72"/>
-      <c r="B36" s="63" t="s">
+      <c r="A36" s="89"/>
+      <c r="B36" s="80" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -12660,8 +12742,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="72"/>
-      <c r="B37" s="64" t="s">
+      <c r="A37" s="89"/>
+      <c r="B37" s="81" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -12678,8 +12760,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
-      <c r="B38" s="64" t="s">
+      <c r="A38" s="89"/>
+      <c r="B38" s="81" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="13" t="s">
@@ -12697,8 +12779,8 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
-      <c r="B39" s="65" t="s">
+      <c r="A39" s="89"/>
+      <c r="B39" s="82" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -12715,7 +12797,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="73"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="41" t="s">
         <v>506</v>
       </c>

--- a/table_outputs_formatted.xlsx
+++ b/table_outputs_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1985751\Documents\GitHub\fea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41046FD4-7942-4E66-A4DC-8055FCC74069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08260A-A902-49C9-A714-555651BAF6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -88,6 +88,105 @@
         </r>
       </text>
     </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{CC45186B-C8B2-45D9-84E8-82D3A68B41A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SADLER Alexandra:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Brazil city level population data source: UN data - city population by sex, city and city type: https://data.un.org/Data.aspx?d=POP&amp;f=tableCode:240
+2023; urban agglomeration (not city proper) as that is all I could find for India so need to match that.
+Note that didn't use for India or UK because latest date was 2011.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{649C5B59-4D44-4EEA-9B8B-D0D46F9255AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SADLER Alexandra:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Country-level totals from World Bank, 'Population, total': https://data.worldbank.org/indicator/SP.POP.TOTL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{23B488DC-1A07-4217-98C4-149F85B9EDD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SADLER Alexandra:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{368255B8-2F60-4D7B-9245-65BFA909E02C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SADLER Alexandra:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Data from Office for National Statistics UK (ONS): 'Estimates of the population for the UK, England, Wales, Scotland, and Northern Ireland'; 'Mid-2022 edition of this dataset'; tab 'MYE4'; 2022 value.
+https://www.ons.gov.uk/peoplepopulationandcommunity/populationandmigration/populationestimates/datasets/populationestimatesforukenglandandwalesscotlandandnorthernireland</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -161,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="645">
   <si>
     <t>country</t>
   </si>
@@ -2093,15 +2192,20 @@
   </si>
   <si>
     <t>p-values (Mann-Whitney)</t>
+  </si>
+  <si>
+    <t>Store Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000000000000000000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -2122,14 +2226,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2183,6 +2279,14 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2266,11 +2370,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2310,7 +2415,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2359,12 +2464,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2394,12 +2499,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2439,7 +2538,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2459,12 +2565,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2509,15 +2609,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2978,7 +3099,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3007,7 +3128,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -3024,7 +3145,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="75"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="39" t="s">
         <v>215</v>
       </c>
@@ -3039,7 +3160,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -3056,7 +3177,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="39" t="s">
@@ -3073,7 +3194,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>74</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3090,7 +3211,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="76" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -3107,7 +3228,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="74" t="s">
         <v>508</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3124,7 +3245,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="22" t="s">
         <v>215</v>
       </c>
@@ -3540,8 +3661,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3579,7 +3700,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -3600,7 +3721,7 @@
       <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="74"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="13" t="s">
         <v>583</v>
       </c>
@@ -3619,7 +3740,7 @@
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="74"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
@@ -3636,10 +3757,10 @@
         <v>279</v>
       </c>
       <c r="G4" s="44"/>
-      <c r="I4" s="70"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="15" t="s">
         <v>499</v>
       </c>
@@ -3660,7 +3781,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3681,7 +3802,7 @@
       <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="75" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -3702,7 +3823,7 @@
       <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="75" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -3723,7 +3844,7 @@
       <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="76" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -3746,7 +3867,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -3767,7 +3888,7 @@
       <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="75" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -3779,7 +3900,7 @@
       <c r="D11" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="101" t="s">
         <v>309</v>
       </c>
       <c r="F11" s="44" t="s">
@@ -3788,7 +3909,7 @@
       <c r="G11" s="44"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="75" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -3800,7 +3921,7 @@
       <c r="D12" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="101" t="s">
         <v>317</v>
       </c>
       <c r="F12" s="44" t="s">
@@ -3809,7 +3930,7 @@
       <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="76" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -3821,7 +3942,7 @@
       <c r="D13" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="66" t="s">
         <v>336</v>
       </c>
       <c r="F13" s="45" t="s">
@@ -4559,7 +4680,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="88" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -4580,7 +4701,7 @@
       <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="89"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
@@ -4599,7 +4720,7 @@
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="89"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
@@ -4618,7 +4739,7 @@
       <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="77"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="15" t="s">
         <v>499</v>
       </c>
@@ -4634,12 +4755,12 @@
       <c r="F5" s="45" t="s">
         <v>381</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="56">
         <v>1.472318E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="91" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -4660,7 +4781,7 @@
       <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="89"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="13" t="s">
         <v>66</v>
       </c>
@@ -4679,7 +4800,7 @@
       <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="15" t="s">
         <v>499</v>
       </c>
@@ -4695,12 +4816,12 @@
       <c r="F8" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="56">
         <v>2.0996089999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="91" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -4721,7 +4842,7 @@
       <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="88" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -4742,7 +4863,7 @@
       <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="88" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -4763,7 +4884,7 @@
       <c r="G11" s="44"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="78" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -4781,12 +4902,12 @@
       <c r="F12" s="45" t="s">
         <v>388</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="56" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="58" t="s">
         <v>508</v>
       </c>
       <c r="B13" s="52"/>
@@ -4802,7 +4923,7 @@
       <c r="F13" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="57" t="s">
         <v>514</v>
       </c>
     </row>
@@ -4824,75 +4945,79 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="1"/>
+    <col min="1" max="1" width="9.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.6328125" style="1" customWidth="1"/>
     <col min="8" max="10" width="12.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>488</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="93" t="s">
         <v>486</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="77" t="s">
         <v>489</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="72" t="s">
         <v>493</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73" t="s">
+        <v>644</v>
+      </c>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="62" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="60" t="s">
         <v>490</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="60" t="s">
         <v>491</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="60" t="s">
         <v>492</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="60" t="s">
         <v>494</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="60" t="s">
         <v>495</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="60" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="94" t="s">
+      <c r="C3" s="98">
+        <v>11760550</v>
+      </c>
+      <c r="D3" s="69" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="43" t="s">
@@ -4904,22 +5029,24 @@
       <c r="G3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="61" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="74"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="96">
+        <v>20673280</v>
+      </c>
       <c r="D4" s="44" t="s">
         <v>21</v>
       </c>
@@ -4932,22 +5059,24 @@
       <c r="G4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="62" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="74"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="96">
+        <v>196312</v>
+      </c>
       <c r="D5" s="44" t="s">
         <v>33</v>
       </c>
@@ -4960,52 +5089,56 @@
       <c r="G5" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="62" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="75"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="68">
+      <c r="C6" s="99">
+        <v>216422450</v>
+      </c>
+      <c r="D6" s="66">
         <v>126</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="66" t="s">
         <v>625</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="66" t="s">
         <v>626</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="66" t="s">
         <v>627</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="67" t="s">
         <v>629</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="67" t="s">
         <v>628</v>
       </c>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="67" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="74" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="95">
+        <v>11068877</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>43</v>
       </c>
@@ -5018,22 +5151,24 @@
       <c r="G7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="61" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="96">
+        <v>525002</v>
+      </c>
       <c r="D8" s="44" t="s">
         <v>55</v>
       </c>
@@ -5046,22 +5181,24 @@
       <c r="G8" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="62" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="74"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="96">
+        <v>2385110</v>
+      </c>
       <c r="D9" s="44" t="s">
         <v>67</v>
       </c>
@@ -5074,22 +5211,24 @@
       <c r="G9" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="62" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="75"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="97">
+        <v>1428627660</v>
+      </c>
       <c r="D10" s="45">
         <v>487</v>
       </c>
@@ -5102,24 +5241,26 @@
       <c r="G10" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="64" t="s">
         <v>635</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="64" t="s">
         <v>634</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="64" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="74" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="95">
+        <v>1157603</v>
+      </c>
       <c r="D11" s="43" t="s">
         <v>76</v>
       </c>
@@ -5132,22 +5273,24 @@
       <c r="G11" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="61" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="74"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="96">
+        <v>514990</v>
+      </c>
       <c r="D12" s="44" t="s">
         <v>7</v>
       </c>
@@ -5160,22 +5303,24 @@
       <c r="G12" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="62" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="74"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="96">
+        <v>8866180</v>
+      </c>
       <c r="D13" s="44" t="s">
         <v>90</v>
       </c>
@@ -5188,22 +5333,24 @@
       <c r="G13" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="64" t="s">
+      <c r="H13" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="64" t="s">
+      <c r="J13" s="62" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="75"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="97">
+        <v>68350000</v>
+      </c>
       <c r="D14" s="45">
         <v>195</v>
       </c>
@@ -5216,13 +5363,13 @@
       <c r="G14" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="64" t="s">
         <v>624</v>
       </c>
-      <c r="I14" s="66" t="s">
+      <c r="I14" s="64" t="s">
         <v>623</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="64" t="s">
         <v>622</v>
       </c>
     </row>
@@ -5231,7 +5378,7 @@
         <v>508</v>
       </c>
       <c r="B15" s="51"/>
-      <c r="C15" s="54"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="54">
         <f>D6+D10+D14</f>
         <v>808</v>
@@ -5256,15 +5403,15 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="67"/>
+      <c r="F18" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5892,7 +6039,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5903,7 +6050,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57"/>
+      <c r="A1" s="55"/>
       <c r="B1" s="47" t="s">
         <v>590</v>
       </c>
@@ -5936,7 +6083,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -5971,7 +6118,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="74"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="13" t="s">
         <v>589</v>
       </c>
@@ -6004,7 +6151,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="74"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="13" t="s">
         <v>588</v>
       </c>
@@ -6037,7 +6184,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="15" t="s">
         <v>499</v>
       </c>
@@ -6070,7 +6217,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -6105,7 +6252,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="74"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="13" t="s">
         <v>589</v>
       </c>
@@ -6138,7 +6285,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="13" t="s">
         <v>588</v>
       </c>
@@ -6171,7 +6318,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="75"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="15" t="s">
         <v>499</v>
       </c>
@@ -6204,7 +6351,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -6239,7 +6386,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="74"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="13" t="s">
         <v>589</v>
       </c>
@@ -6272,7 +6419,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="74"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="13" t="s">
         <v>588</v>
       </c>
@@ -6305,7 +6452,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="75"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="15" t="s">
         <v>499</v>
       </c>
@@ -6338,7 +6485,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="74" t="s">
         <v>508</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -6373,7 +6520,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="74"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="13" t="s">
         <v>589</v>
       </c>
@@ -6406,7 +6553,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="74"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="13" t="s">
         <v>588</v>
       </c>
@@ -6439,7 +6586,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="91"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="18" t="s">
         <v>499</v>
       </c>
@@ -6556,7 +6703,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -6647,7 +6794,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="93"/>
+      <c r="A3" s="92"/>
       <c r="B3" t="s">
         <v>589</v>
       </c>
@@ -6736,7 +6883,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="93"/>
+      <c r="A4" s="92"/>
       <c r="B4" t="s">
         <v>588</v>
       </c>
@@ -6825,7 +6972,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="93"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="4" t="s">
         <v>499</v>
       </c>
@@ -6835,7 +6982,7 @@
       <c r="D5" s="4">
         <v>81</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="59">
         <v>0.88043478260869568</v>
       </c>
       <c r="F5" s="4" t="str">
@@ -6845,7 +6992,7 @@
       <c r="G5" s="4">
         <v>10</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="59">
         <v>0.10869565217391304</v>
       </c>
       <c r="I5" s="4" t="str">
@@ -6855,7 +7002,7 @@
       <c r="J5" s="4">
         <v>8</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="59">
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="L5" s="4" t="str">
@@ -6865,7 +7012,7 @@
       <c r="M5" s="4">
         <v>6</v>
       </c>
-      <c r="N5" s="61">
+      <c r="N5" s="59">
         <v>6.5217391304347824E-2</v>
       </c>
       <c r="O5" s="4" t="str">
@@ -6875,7 +7022,7 @@
       <c r="P5" s="4">
         <v>2</v>
       </c>
-      <c r="Q5" s="61">
+      <c r="Q5" s="59">
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="R5" s="4" t="str">
@@ -6885,7 +7032,7 @@
       <c r="S5" s="4">
         <v>1</v>
       </c>
-      <c r="T5" s="61">
+      <c r="T5" s="59">
         <v>1.0869565217391304E-2</v>
       </c>
       <c r="U5" s="4" t="str">
@@ -6895,7 +7042,7 @@
       <c r="V5" s="4">
         <v>13</v>
       </c>
-      <c r="W5" s="61">
+      <c r="W5" s="59">
         <v>0.14130434782608695</v>
       </c>
       <c r="X5" s="4" t="str">
@@ -6905,7 +7052,7 @@
       <c r="Y5" s="4">
         <v>2</v>
       </c>
-      <c r="Z5" s="61">
+      <c r="Z5" s="59">
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="AA5" s="4" t="str">
@@ -6914,7 +7061,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="92" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
@@ -7005,7 +7152,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7" s="93"/>
+      <c r="A7" s="92"/>
       <c r="B7" t="s">
         <v>589</v>
       </c>
@@ -7094,7 +7241,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8" s="93"/>
+      <c r="A8" s="92"/>
       <c r="B8" t="s">
         <v>588</v>
       </c>
@@ -7183,7 +7330,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="93"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="4" t="s">
         <v>499</v>
       </c>
@@ -7193,7 +7340,7 @@
       <c r="D9" s="4">
         <v>80</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="59">
         <v>0.30303030303030304</v>
       </c>
       <c r="F9" s="4" t="str">
@@ -7203,7 +7350,7 @@
       <c r="G9" s="4">
         <v>184</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="59">
         <v>0.69696969696969702</v>
       </c>
       <c r="I9" s="4" t="str">
@@ -7213,7 +7360,7 @@
       <c r="J9" s="4">
         <v>4</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="59">
         <v>1.5151515151515152E-2</v>
       </c>
       <c r="L9" s="4" t="str">
@@ -7223,7 +7370,7 @@
       <c r="M9" s="4">
         <v>15</v>
       </c>
-      <c r="N9" s="61">
+      <c r="N9" s="59">
         <v>5.6818181818181816E-2</v>
       </c>
       <c r="O9" s="4" t="str">
@@ -7233,7 +7380,7 @@
       <c r="P9" s="4">
         <v>0</v>
       </c>
-      <c r="Q9" s="61">
+      <c r="Q9" s="59">
         <v>0</v>
       </c>
       <c r="R9" s="4" t="str">
@@ -7243,7 +7390,7 @@
       <c r="S9" s="4">
         <v>0</v>
       </c>
-      <c r="T9" s="61">
+      <c r="T9" s="59">
         <v>0</v>
       </c>
       <c r="U9" s="4" t="str">
@@ -7253,7 +7400,7 @@
       <c r="V9" s="4">
         <v>11</v>
       </c>
-      <c r="W9" s="61">
+      <c r="W9" s="59">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="X9" s="4" t="str">
@@ -7263,7 +7410,7 @@
       <c r="Y9" s="4">
         <v>10</v>
       </c>
-      <c r="Z9" s="61">
+      <c r="Z9" s="59">
         <v>3.787878787878788E-2</v>
       </c>
       <c r="AA9" s="4" t="str">
@@ -7272,7 +7419,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="92" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
@@ -7363,7 +7510,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A11" s="93"/>
+      <c r="A11" s="92"/>
       <c r="B11" t="s">
         <v>589</v>
       </c>
@@ -7452,7 +7599,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A12" s="93"/>
+      <c r="A12" s="92"/>
       <c r="B12" t="s">
         <v>588</v>
       </c>
@@ -7541,7 +7688,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="93"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="4" t="s">
         <v>499</v>
       </c>
@@ -7551,7 +7698,7 @@
       <c r="D13" s="4">
         <v>279</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="59">
         <v>0.83283582089552244</v>
       </c>
       <c r="F13" s="4" t="str">
@@ -7561,7 +7708,7 @@
       <c r="G13" s="4">
         <v>55</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="59">
         <v>0.16417910447761194</v>
       </c>
       <c r="I13" s="4" t="str">
@@ -7571,7 +7718,7 @@
       <c r="J13" s="4">
         <v>3</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="59">
         <v>8.9552238805970154E-3</v>
       </c>
       <c r="L13" s="4" t="str">
@@ -7581,7 +7728,7 @@
       <c r="M13" s="4">
         <v>5</v>
       </c>
-      <c r="N13" s="61">
+      <c r="N13" s="59">
         <v>1.4925373134328358E-2</v>
       </c>
       <c r="O13" s="4" t="str">
@@ -7591,7 +7738,7 @@
       <c r="P13" s="4">
         <v>0</v>
       </c>
-      <c r="Q13" s="61">
+      <c r="Q13" s="59">
         <v>0</v>
       </c>
       <c r="R13" s="4" t="str">
@@ -7601,7 +7748,7 @@
       <c r="S13" s="4">
         <v>2</v>
       </c>
-      <c r="T13" s="61">
+      <c r="T13" s="59">
         <v>5.9701492537313433E-3</v>
       </c>
       <c r="U13" s="4" t="str">
@@ -7611,7 +7758,7 @@
       <c r="V13" s="4">
         <v>10</v>
       </c>
-      <c r="W13" s="61">
+      <c r="W13" s="59">
         <v>2.9850746268656716E-2</v>
       </c>
       <c r="X13" s="4" t="str">
@@ -7621,7 +7768,7 @@
       <c r="Y13" s="4">
         <v>4</v>
       </c>
-      <c r="Z13" s="61">
+      <c r="Z13" s="59">
         <v>1.1940298507462687E-2</v>
       </c>
       <c r="AA13" s="4" t="str">
@@ -7630,7 +7777,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="92" t="s">
         <v>508</v>
       </c>
       <c r="B14" t="s">
@@ -7721,7 +7868,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A15" s="93"/>
+      <c r="A15" s="92"/>
       <c r="B15" t="s">
         <v>589</v>
       </c>
@@ -7810,7 +7957,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A16" s="93"/>
+      <c r="A16" s="92"/>
       <c r="B16" t="s">
         <v>588</v>
       </c>
@@ -7899,7 +8046,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="93"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="4" t="s">
         <v>499</v>
       </c>
@@ -7909,7 +8056,7 @@
       <c r="D17" s="4">
         <v>440</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="59">
         <v>0.63675832127351661</v>
       </c>
       <c r="F17" s="4" t="str">
@@ -7919,7 +8066,7 @@
       <c r="G17" s="4">
         <v>249</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="59">
         <v>0.36034732272069464</v>
       </c>
       <c r="I17" s="4" t="str">
@@ -7929,7 +8076,7 @@
       <c r="J17" s="4">
         <v>15</v>
       </c>
-      <c r="K17" s="61">
+      <c r="K17" s="59">
         <v>2.1707670043415339E-2</v>
       </c>
       <c r="L17" s="4" t="str">
@@ -7939,7 +8086,7 @@
       <c r="M17" s="4">
         <v>26</v>
       </c>
-      <c r="N17" s="61">
+      <c r="N17" s="59">
         <v>3.7626628075253257E-2</v>
       </c>
       <c r="O17" s="4" t="str">
@@ -7949,7 +8096,7 @@
       <c r="P17" s="4">
         <v>2</v>
       </c>
-      <c r="Q17" s="61">
+      <c r="Q17" s="59">
         <v>2.8943560057887118E-3</v>
       </c>
       <c r="R17" s="4" t="str">
@@ -7959,7 +8106,7 @@
       <c r="S17" s="4">
         <v>3</v>
       </c>
-      <c r="T17" s="61">
+      <c r="T17" s="59">
         <v>4.3415340086830683E-3</v>
       </c>
       <c r="U17" s="4" t="str">
@@ -7969,7 +8116,7 @@
       <c r="V17" s="4">
         <v>34</v>
       </c>
-      <c r="W17" s="61">
+      <c r="W17" s="59">
         <v>4.9204052098408106E-2</v>
       </c>
       <c r="X17" s="4" t="str">
@@ -7979,7 +8126,7 @@
       <c r="Y17" s="4">
         <v>16</v>
       </c>
-      <c r="Z17" s="61">
+      <c r="Z17" s="59">
         <v>2.3154848046309694E-2</v>
       </c>
       <c r="AA17" s="4" t="str">
@@ -8072,7 +8219,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -8131,7 +8278,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="93"/>
+      <c r="A3" s="92"/>
       <c r="B3" t="s">
         <v>589</v>
       </c>
@@ -8188,7 +8335,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="93"/>
+      <c r="A4" s="92"/>
       <c r="B4" t="s">
         <v>588</v>
       </c>
@@ -8245,7 +8392,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="93"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="4" t="s">
         <v>499</v>
       </c>
@@ -8257,7 +8404,7 @@
         <f t="shared" ref="D5:Y5" si="0">SUM(D2:D4)</f>
         <v>81</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="59">
         <f>D5/$C5</f>
         <v>0.88043478260869568</v>
       </c>
@@ -8266,7 +8413,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="59">
         <f>G5/$C5</f>
         <v>0.10869565217391304</v>
       </c>
@@ -8275,7 +8422,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="59">
         <f>J5/$C5</f>
         <v>8.6956521739130432E-2</v>
       </c>
@@ -8284,7 +8431,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="N5" s="61">
+      <c r="N5" s="59">
         <f>M5/$C5</f>
         <v>6.5217391304347824E-2</v>
       </c>
@@ -8293,7 +8440,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q5" s="61">
+      <c r="Q5" s="59">
         <f>P5/$C5</f>
         <v>2.1739130434782608E-2</v>
       </c>
@@ -8302,7 +8449,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T5" s="61">
+      <c r="T5" s="59">
         <f>S5/$C5</f>
         <v>1.0869565217391304E-2</v>
       </c>
@@ -8311,7 +8458,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="W5" s="61">
+      <c r="W5" s="59">
         <f>V5/$C5</f>
         <v>0.14130434782608695</v>
       </c>
@@ -8320,13 +8467,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Z5" s="61">
+      <c r="Z5" s="59">
         <f>Y5/$C5</f>
         <v>2.1739130434782608E-2</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="92" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
@@ -8385,7 +8532,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="93"/>
+      <c r="A7" s="92"/>
       <c r="B7" t="s">
         <v>589</v>
       </c>
@@ -8442,7 +8589,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="93"/>
+      <c r="A8" s="92"/>
       <c r="B8" t="s">
         <v>588</v>
       </c>
@@ -8499,7 +8646,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="93"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="4" t="s">
         <v>499</v>
       </c>
@@ -8511,7 +8658,7 @@
         <f t="shared" ref="D9" si="1">SUM(D6:D8)</f>
         <v>80</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="59">
         <f>D9/$C9</f>
         <v>0.30303030303030304</v>
       </c>
@@ -8520,7 +8667,7 @@
         <f t="shared" ref="G9" si="2">SUM(G6:G8)</f>
         <v>184</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="59">
         <f>G9/$C9</f>
         <v>0.69696969696969702</v>
       </c>
@@ -8529,7 +8676,7 @@
         <f t="shared" ref="J9" si="3">SUM(J6:J8)</f>
         <v>4</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="59">
         <f>J9/$C9</f>
         <v>1.5151515151515152E-2</v>
       </c>
@@ -8538,7 +8685,7 @@
         <f t="shared" ref="M9" si="4">SUM(M6:M8)</f>
         <v>15</v>
       </c>
-      <c r="N9" s="61">
+      <c r="N9" s="59">
         <f>M9/$C9</f>
         <v>5.6818181818181816E-2</v>
       </c>
@@ -8547,7 +8694,7 @@
         <f t="shared" ref="P9" si="5">SUM(P6:P8)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="61">
+      <c r="Q9" s="59">
         <f>P9/$C9</f>
         <v>0</v>
       </c>
@@ -8556,7 +8703,7 @@
         <f t="shared" ref="S9" si="6">SUM(S6:S8)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="61">
+      <c r="T9" s="59">
         <f>S9/$C9</f>
         <v>0</v>
       </c>
@@ -8565,7 +8712,7 @@
         <f t="shared" ref="V9" si="7">SUM(V6:V8)</f>
         <v>11</v>
       </c>
-      <c r="W9" s="61">
+      <c r="W9" s="59">
         <f>V9/$C9</f>
         <v>4.1666666666666664E-2</v>
       </c>
@@ -8574,13 +8721,13 @@
         <f t="shared" ref="Y9" si="8">SUM(Y6:Y8)</f>
         <v>10</v>
       </c>
-      <c r="Z9" s="61">
+      <c r="Z9" s="59">
         <f>Y9/$C9</f>
         <v>3.787878787878788E-2</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="92" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
@@ -8639,7 +8786,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="93"/>
+      <c r="A11" s="92"/>
       <c r="B11" t="s">
         <v>589</v>
       </c>
@@ -8696,7 +8843,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="93"/>
+      <c r="A12" s="92"/>
       <c r="B12" t="s">
         <v>588</v>
       </c>
@@ -8753,7 +8900,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="93"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="4" t="s">
         <v>499</v>
       </c>
@@ -8765,7 +8912,7 @@
         <f t="shared" ref="D13" si="9">SUM(D10:D12)</f>
         <v>279</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="59">
         <f>D13/$C13</f>
         <v>0.83283582089552244</v>
       </c>
@@ -8774,7 +8921,7 @@
         <f t="shared" ref="G13" si="10">SUM(G10:G12)</f>
         <v>55</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="59">
         <f>G13/$C13</f>
         <v>0.16417910447761194</v>
       </c>
@@ -8783,7 +8930,7 @@
         <f t="shared" ref="J13" si="11">SUM(J10:J12)</f>
         <v>3</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="59">
         <f>J13/$C13</f>
         <v>8.9552238805970154E-3</v>
       </c>
@@ -8792,7 +8939,7 @@
         <f t="shared" ref="M13" si="12">SUM(M10:M12)</f>
         <v>5</v>
       </c>
-      <c r="N13" s="61">
+      <c r="N13" s="59">
         <f>M13/$C13</f>
         <v>1.4925373134328358E-2</v>
       </c>
@@ -8801,7 +8948,7 @@
         <f t="shared" ref="P13" si="13">SUM(P10:P12)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="61">
+      <c r="Q13" s="59">
         <f>P13/$C13</f>
         <v>0</v>
       </c>
@@ -8810,7 +8957,7 @@
         <f t="shared" ref="S13" si="14">SUM(S10:S12)</f>
         <v>2</v>
       </c>
-      <c r="T13" s="61">
+      <c r="T13" s="59">
         <f>S13/$C13</f>
         <v>5.9701492537313433E-3</v>
       </c>
@@ -8819,7 +8966,7 @@
         <f t="shared" ref="V13" si="15">SUM(V10:V12)</f>
         <v>10</v>
       </c>
-      <c r="W13" s="61">
+      <c r="W13" s="59">
         <f>V13/$C13</f>
         <v>2.9850746268656716E-2</v>
       </c>
@@ -8828,13 +8975,13 @@
         <f t="shared" ref="Y13" si="16">SUM(Y10:Y12)</f>
         <v>4</v>
       </c>
-      <c r="Z13" s="61">
+      <c r="Z13" s="59">
         <f>Y13/$C13</f>
         <v>1.1940298507462687E-2</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="92" t="s">
         <v>508</v>
       </c>
       <c r="B14" t="s">
@@ -8893,7 +9040,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="93"/>
+      <c r="A15" s="92"/>
       <c r="B15" t="s">
         <v>589</v>
       </c>
@@ -8950,7 +9097,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="93"/>
+      <c r="A16" s="92"/>
       <c r="B16" t="s">
         <v>588</v>
       </c>
@@ -9007,7 +9154,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="93"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="4" t="s">
         <v>499</v>
       </c>
@@ -9019,7 +9166,7 @@
         <f t="shared" ref="D17" si="17">SUM(D14:D16)</f>
         <v>440</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="59">
         <f>D17/$C17</f>
         <v>0.63675832127351661</v>
       </c>
@@ -9028,7 +9175,7 @@
         <f t="shared" ref="G17" si="18">SUM(G14:G16)</f>
         <v>249</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="59">
         <f>G17/$C17</f>
         <v>0.36034732272069464</v>
       </c>
@@ -9037,7 +9184,7 @@
         <f t="shared" ref="J17" si="19">SUM(J14:J16)</f>
         <v>15</v>
       </c>
-      <c r="K17" s="61">
+      <c r="K17" s="59">
         <f>J17/$C17</f>
         <v>2.1707670043415339E-2</v>
       </c>
@@ -9046,7 +9193,7 @@
         <f t="shared" ref="M17" si="20">SUM(M14:M16)</f>
         <v>26</v>
       </c>
-      <c r="N17" s="61">
+      <c r="N17" s="59">
         <f>M17/$C17</f>
         <v>3.7626628075253257E-2</v>
       </c>
@@ -9055,7 +9202,7 @@
         <f t="shared" ref="P17" si="21">SUM(P14:P16)</f>
         <v>2</v>
       </c>
-      <c r="Q17" s="61">
+      <c r="Q17" s="59">
         <f>P17/$C17</f>
         <v>2.8943560057887118E-3</v>
       </c>
@@ -9064,7 +9211,7 @@
         <f t="shared" ref="S17" si="22">SUM(S14:S16)</f>
         <v>3</v>
       </c>
-      <c r="T17" s="61">
+      <c r="T17" s="59">
         <f>S17/$C17</f>
         <v>4.3415340086830683E-3</v>
       </c>
@@ -9073,7 +9220,7 @@
         <f t="shared" ref="V17" si="23">SUM(V14:V16)</f>
         <v>34</v>
       </c>
-      <c r="W17" s="61">
+      <c r="W17" s="59">
         <f>V17/$C17</f>
         <v>4.9204052098408106E-2</v>
       </c>
@@ -9082,7 +9229,7 @@
         <f t="shared" ref="Y17" si="24">SUM(Y14:Y16)</f>
         <v>16</v>
       </c>
-      <c r="Z17" s="61">
+      <c r="Z17" s="59">
         <f>Y17/$C17</f>
         <v>2.3154848046309694E-2</v>
       </c>
@@ -10157,10 +10304,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -10179,8 +10326,8 @@
       <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="84"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="13" t="s">
         <v>565</v>
       </c>
@@ -10197,8 +10344,8 @@
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="84"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="13" t="s">
         <v>566</v>
       </c>
@@ -10215,8 +10362,8 @@
       <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="84"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="15" t="s">
         <v>499</v>
       </c>
@@ -10237,8 +10384,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="84"/>
-      <c r="B6" s="80" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="79" t="s">
         <v>583</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -10257,8 +10404,8 @@
       <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="84"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="13" t="s">
         <v>565</v>
       </c>
@@ -10275,8 +10422,8 @@
       <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="84"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="13" t="s">
         <v>566</v>
       </c>
@@ -10293,8 +10440,8 @@
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="84"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="15" t="s">
         <v>499</v>
       </c>
@@ -10315,8 +10462,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="84"/>
-      <c r="B10" s="80" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="79" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -10335,8 +10482,8 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="84"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="13" t="s">
         <v>565</v>
       </c>
@@ -10353,8 +10500,8 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="84"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="13" t="s">
         <v>566</v>
       </c>
@@ -10371,8 +10518,8 @@
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="84"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="15" t="s">
         <v>499</v>
       </c>
@@ -10393,7 +10540,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="85"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="17" t="s">
         <v>507</v>
       </c>
@@ -10415,10 +10562,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="86" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -10437,8 +10584,8 @@
       <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="84"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="13" t="s">
         <v>565</v>
       </c>
@@ -10455,8 +10602,8 @@
       <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="84"/>
-      <c r="B17" s="81"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="13" t="s">
         <v>566</v>
       </c>
@@ -10473,8 +10620,8 @@
       <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="84"/>
-      <c r="B18" s="82"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="15" t="s">
         <v>499</v>
       </c>
@@ -10495,8 +10642,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="84"/>
-      <c r="B19" s="80" t="s">
+      <c r="A19" s="83"/>
+      <c r="B19" s="79" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -10515,8 +10662,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="84"/>
-      <c r="B20" s="81"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="13" t="s">
         <v>565</v>
       </c>
@@ -10533,8 +10680,8 @@
       <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="84"/>
-      <c r="B21" s="81"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="13" t="s">
         <v>566</v>
       </c>
@@ -10551,8 +10698,8 @@
       <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="84"/>
-      <c r="B22" s="82"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="15" t="s">
         <v>499</v>
       </c>
@@ -10573,8 +10720,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="84"/>
-      <c r="B23" s="80" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="79" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -10593,8 +10740,8 @@
       <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="84"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="13" t="s">
         <v>565</v>
       </c>
@@ -10611,8 +10758,8 @@
       <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="84"/>
-      <c r="B25" s="81"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="13" t="s">
         <v>566</v>
       </c>
@@ -10629,8 +10776,8 @@
       <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="84"/>
-      <c r="B26" s="82"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="15" t="s">
         <v>499</v>
       </c>
@@ -10657,7 +10804,7 @@
       <c r="N26"/>
     </row>
     <row r="27" spans="1:14" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="85"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="17" t="s">
         <v>505</v>
       </c>
@@ -10684,10 +10831,10 @@
       <c r="M27"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="86" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -10707,8 +10854,8 @@
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="84"/>
-      <c r="B29" s="81"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="13" t="s">
         <v>565</v>
       </c>
@@ -10726,8 +10873,8 @@
       <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="84"/>
-      <c r="B30" s="81"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="13" t="s">
         <v>566</v>
       </c>
@@ -10744,8 +10891,8 @@
       <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="84"/>
-      <c r="B31" s="82"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="15" t="s">
         <v>499</v>
       </c>
@@ -10766,8 +10913,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="84"/>
-      <c r="B32" s="80" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="79" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -10786,8 +10933,8 @@
       <c r="H32" s="34"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="84"/>
-      <c r="B33" s="81"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="13" t="s">
         <v>565</v>
       </c>
@@ -10804,8 +10951,8 @@
       <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="84"/>
-      <c r="B34" s="81"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="13" t="s">
         <v>566</v>
       </c>
@@ -10822,8 +10969,8 @@
       <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="84"/>
-      <c r="B35" s="82"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="15" t="s">
         <v>499</v>
       </c>
@@ -10844,8 +10991,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="84"/>
-      <c r="B36" s="80" t="s">
+      <c r="A36" s="83"/>
+      <c r="B36" s="79" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -10864,8 +11011,8 @@
       <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="84"/>
-      <c r="B37" s="81"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="13" t="s">
         <v>565</v>
       </c>
@@ -10882,8 +11029,8 @@
       <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="84"/>
-      <c r="B38" s="81"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="13" t="s">
         <v>566</v>
       </c>
@@ -10900,8 +11047,8 @@
       <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="84"/>
-      <c r="B39" s="82"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="15" t="s">
         <v>499</v>
       </c>
@@ -10922,7 +11069,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="85"/>
+      <c r="A40" s="84"/>
       <c r="B40" s="17" t="s">
         <v>506</v>
       </c>
@@ -12111,15 +12258,15 @@
       <c r="E1" s="40" t="s">
         <v>568</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="70" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -12136,8 +12283,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="89"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="13" t="s">
         <v>565</v>
       </c>
@@ -12152,8 +12299,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="89"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="13" t="s">
         <v>566</v>
       </c>
@@ -12168,8 +12315,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="89"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="15" t="s">
         <v>499</v>
       </c>
@@ -12184,8 +12331,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="89"/>
-      <c r="B6" s="80" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="79" t="s">
         <v>583</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -12202,8 +12349,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="89"/>
-      <c r="B7" s="81" t="s">
+      <c r="A7" s="88"/>
+      <c r="B7" s="80" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -12212,16 +12359,16 @@
       <c r="D7" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="71" t="s">
         <v>524</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="71" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="89"/>
-      <c r="B8" s="81" t="s">
+      <c r="A8" s="88"/>
+      <c r="B8" s="80" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -12230,16 +12377,16 @@
       <c r="D8" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="71" t="s">
         <v>524</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="71" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="89"/>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="81" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -12256,8 +12403,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="89"/>
-      <c r="B10" s="80" t="s">
+      <c r="A10" s="88"/>
+      <c r="B10" s="79" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -12274,8 +12421,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="89"/>
-      <c r="B11" s="81" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="80" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -12292,8 +12439,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="89"/>
-      <c r="B12" s="81" t="s">
+      <c r="A12" s="88"/>
+      <c r="B12" s="80" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -12310,8 +12457,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="89"/>
-      <c r="B13" s="82" t="s">
+      <c r="A13" s="88"/>
+      <c r="B13" s="81" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -12328,7 +12475,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="90"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="41" t="s">
         <v>507</v>
       </c>
@@ -12344,10 +12491,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="86" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -12364,8 +12511,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="89"/>
-      <c r="B16" s="81" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="80" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -12382,8 +12529,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="89"/>
-      <c r="B17" s="81" t="s">
+      <c r="A17" s="88"/>
+      <c r="B17" s="80" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -12400,8 +12547,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="89"/>
-      <c r="B18" s="82" t="s">
+      <c r="A18" s="88"/>
+      <c r="B18" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -12418,8 +12565,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="89"/>
-      <c r="B19" s="80" t="s">
+      <c r="A19" s="88"/>
+      <c r="B19" s="79" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -12436,8 +12583,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="89"/>
-      <c r="B20" s="81" t="s">
+      <c r="A20" s="88"/>
+      <c r="B20" s="80" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -12454,8 +12601,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="89"/>
-      <c r="B21" s="81" t="s">
+      <c r="A21" s="88"/>
+      <c r="B21" s="80" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -12472,8 +12619,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="89"/>
-      <c r="B22" s="82" t="s">
+      <c r="A22" s="88"/>
+      <c r="B22" s="81" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -12490,8 +12637,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="89"/>
-      <c r="B23" s="80" t="s">
+      <c r="A23" s="88"/>
+      <c r="B23" s="79" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -12508,8 +12655,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="89"/>
-      <c r="B24" s="81" t="s">
+      <c r="A24" s="88"/>
+      <c r="B24" s="80" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -12526,8 +12673,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="89"/>
-      <c r="B25" s="81" t="s">
+      <c r="A25" s="88"/>
+      <c r="B25" s="80" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -12544,8 +12691,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="89"/>
-      <c r="B26" s="82" t="s">
+      <c r="A26" s="88"/>
+      <c r="B26" s="81" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -12562,7 +12709,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="90"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="41" t="s">
         <v>505</v>
       </c>
@@ -12578,10 +12725,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="86" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -12598,8 +12745,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="89"/>
-      <c r="B29" s="81" t="s">
+      <c r="A29" s="88"/>
+      <c r="B29" s="80" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -12616,8 +12763,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="89"/>
-      <c r="B30" s="81" t="s">
+      <c r="A30" s="88"/>
+      <c r="B30" s="80" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -12634,8 +12781,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="89"/>
-      <c r="B31" s="82" t="s">
+      <c r="A31" s="88"/>
+      <c r="B31" s="81" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -12652,8 +12799,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="89"/>
-      <c r="B32" s="80" t="s">
+      <c r="A32" s="88"/>
+      <c r="B32" s="79" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -12670,8 +12817,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="89"/>
-      <c r="B33" s="81" t="s">
+      <c r="A33" s="88"/>
+      <c r="B33" s="80" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -12688,8 +12835,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="89"/>
-      <c r="B34" s="81" t="s">
+      <c r="A34" s="88"/>
+      <c r="B34" s="80" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -12706,8 +12853,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="89"/>
-      <c r="B35" s="82" t="s">
+      <c r="A35" s="88"/>
+      <c r="B35" s="81" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -12724,8 +12871,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="89"/>
-      <c r="B36" s="80" t="s">
+      <c r="A36" s="88"/>
+      <c r="B36" s="79" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -12742,8 +12889,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="89"/>
-      <c r="B37" s="81" t="s">
+      <c r="A37" s="88"/>
+      <c r="B37" s="80" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -12760,8 +12907,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="89"/>
-      <c r="B38" s="81" t="s">
+      <c r="A38" s="88"/>
+      <c r="B38" s="80" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="13" t="s">
@@ -12779,8 +12926,8 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="89"/>
-      <c r="B39" s="82" t="s">
+      <c r="A39" s="88"/>
+      <c r="B39" s="81" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -12797,7 +12944,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="90"/>
+      <c r="A40" s="89"/>
       <c r="B40" s="41" t="s">
         <v>506</v>
       </c>

--- a/table_outputs_formatted.xlsx
+++ b/table_outputs_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1985751\Documents\GitHub\fea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08260A-A902-49C9-A714-555651BAF6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408E0A5C-0964-4B98-BF52-08E276F8698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -197,6 +197,30 @@
     <author>SADLER Alexandra</author>
   </authors>
   <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{7BD86AAB-22C5-46BF-B5F7-97D01A5BF857}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SADLER Alexandra:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Check what groupings other papers have done</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D4" authorId="0" shapeId="0" xr:uid="{70368BC3-B68B-42C6-9ABB-3086DCCFF298}">
       <text>
         <r>
@@ -260,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="646">
   <si>
     <t>country</t>
   </si>
@@ -1966,15 +1990,9 @@
     <t>Higher income</t>
   </si>
   <si>
-    <t>Organic  vendors with multiple options (&gt;1 product), n (%)</t>
-  </si>
-  <si>
     <t>Organic  vendors</t>
   </si>
   <si>
-    <t>Foods with multiple options, median (IQR)</t>
-  </si>
-  <si>
     <t>22 (85%)</t>
   </si>
   <si>
@@ -2195,6 +2213,15 @@
   </si>
   <si>
     <t>Store Type</t>
+  </si>
+  <si>
+    <t>1, n (%)</t>
+  </si>
+  <si>
+    <t>Sentinel foods with multiple organic options, median (IQR)</t>
+  </si>
+  <si>
+    <t>Organic  vendors with multiple options for &gt;1 sentinel food, n (%)</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2232,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000000000000000000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -2375,7 +2402,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2546,6 +2573,27 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2565,6 +2613,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2609,32 +2663,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3096,10 +3126,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3107,28 +3137,40 @@
     <col min="2" max="2" width="18.6328125" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" customWidth="1"/>
+    <col min="7" max="7" width="4.36328125" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>487</v>
       </c>
       <c r="B1" s="47" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="102" t="s">
+        <v>643</v>
+      </c>
+      <c r="F1" s="102">
+        <v>2</v>
+      </c>
+      <c r="G1" s="102">
+        <v>3</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="81" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -3140,12 +3182,15 @@
       <c r="D2" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="76"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="83"/>
       <c r="B3" s="39" t="s">
         <v>215</v>
       </c>
@@ -3155,12 +3200,15 @@
       <c r="D3" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="74" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="81" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -3172,12 +3220,15 @@
       <c r="D4" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="76" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="83" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="39" t="s">
@@ -3189,12 +3240,15 @@
       <c r="D5" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="39" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="81" t="s">
         <v>74</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3206,12 +3260,15 @@
       <c r="D6" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="76" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="83" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -3223,12 +3280,15 @@
       <c r="D7" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="39" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="74" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="81" t="s">
         <v>508</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3240,12 +3300,15 @@
       <c r="D8" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="90"/>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="99"/>
       <c r="B9" s="22" t="s">
         <v>215</v>
       </c>
@@ -3255,7 +3318,10 @@
       <c r="D9" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="22" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3661,7 +3727,7 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -3684,23 +3750,23 @@
         <v>488</v>
       </c>
       <c r="C1" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>579</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="F1" s="42" t="s">
         <v>580</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>581</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>582</v>
-      </c>
       <c r="G1" s="42" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -3721,9 +3787,9 @@
       <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="75"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>218</v>
@@ -3740,7 +3806,7 @@
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
@@ -3760,7 +3826,7 @@
       <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="76"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="15" t="s">
         <v>499</v>
       </c>
@@ -3777,11 +3843,11 @@
         <v>328</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="81" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3802,7 +3868,7 @@
       <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="82" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -3823,7 +3889,7 @@
       <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="82" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -3844,7 +3910,7 @@
       <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="83" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -3863,11 +3929,11 @@
         <v>334</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="81" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -3888,7 +3954,7 @@
       <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="82" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -3900,7 +3966,7 @@
       <c r="D11" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="78" t="s">
         <v>309</v>
       </c>
       <c r="F11" s="44" t="s">
@@ -3909,7 +3975,7 @@
       <c r="G11" s="44"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="82" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -3921,7 +3987,7 @@
       <c r="D12" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="78" t="s">
         <v>317</v>
       </c>
       <c r="F12" s="44" t="s">
@@ -3930,7 +3996,7 @@
       <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="83" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -3949,7 +4015,7 @@
         <v>338</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3970,7 +4036,7 @@
         <v>344</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -4664,23 +4730,23 @@
         <v>488</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E1" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>584</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>585</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>586</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="97" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -4701,7 +4767,7 @@
       <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="88"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
@@ -4720,7 +4786,7 @@
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="88"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
@@ -4739,7 +4805,7 @@
       <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="15" t="s">
         <v>499</v>
       </c>
@@ -4760,7 +4826,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="100" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -4781,7 +4847,7 @@
       <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="88"/>
+      <c r="A7" s="97"/>
       <c r="B7" s="13" t="s">
         <v>66</v>
       </c>
@@ -4800,7 +4866,7 @@
       <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="78"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="15" t="s">
         <v>499</v>
       </c>
@@ -4821,7 +4887,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="100" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -4842,7 +4908,7 @@
       <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="97" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -4863,7 +4929,7 @@
       <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="97" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -4884,7 +4950,7 @@
       <c r="G11" s="44"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="85" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -4960,34 +5026,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="84" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="84" t="s">
         <v>488</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="86" t="s">
         <v>486</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="84" t="s">
         <v>489</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="79" t="s">
         <v>493</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73" t="s">
-        <v>644</v>
-      </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80" t="s">
+        <v>642</v>
+      </c>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="78"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="60" t="s">
         <v>490</v>
       </c>
@@ -5008,13 +5074,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="81" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="98">
+      <c r="C3" s="75">
         <v>11760550</v>
       </c>
       <c r="D3" s="69" t="s">
@@ -5040,11 +5106,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="C4" s="96">
+        <v>581</v>
+      </c>
+      <c r="C4" s="73">
         <v>20673280</v>
       </c>
       <c r="D4" s="44" t="s">
@@ -5070,11 +5136,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="75"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="96">
+      <c r="C5" s="73">
         <v>196312</v>
       </c>
       <c r="D5" s="44" t="s">
@@ -5100,43 +5166,43 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="76"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="76">
         <v>216422450</v>
       </c>
       <c r="D6" s="66">
         <v>126</v>
       </c>
       <c r="E6" s="66" t="s">
+        <v>623</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>624</v>
+      </c>
+      <c r="G6" s="66" t="s">
         <v>625</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="H6" s="67" t="s">
+        <v>627</v>
+      </c>
+      <c r="I6" s="67" t="s">
         <v>626</v>
-      </c>
-      <c r="G6" s="66" t="s">
-        <v>627</v>
-      </c>
-      <c r="H6" s="67" t="s">
-        <v>629</v>
-      </c>
-      <c r="I6" s="67" t="s">
-        <v>628</v>
       </c>
       <c r="J6" s="67" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="81" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="72">
         <v>11068877</v>
       </c>
       <c r="D7" s="43" t="s">
@@ -5162,11 +5228,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="75"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="96">
+      <c r="C8" s="73">
         <v>525002</v>
       </c>
       <c r="D8" s="44" t="s">
@@ -5192,11 +5258,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="75"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="96">
+      <c r="C9" s="73">
         <v>2385110</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -5222,43 +5288,43 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="76"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C10" s="97">
+      <c r="C10" s="74">
         <v>1428627660</v>
       </c>
       <c r="D10" s="45">
         <v>487</v>
       </c>
       <c r="E10" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="G10" s="45" t="s">
         <v>630</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="H10" s="64" t="s">
+        <v>633</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>632</v>
+      </c>
+      <c r="J10" s="64" t="s">
         <v>631</v>
       </c>
-      <c r="G10" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>635</v>
-      </c>
-      <c r="I10" s="64" t="s">
-        <v>634</v>
-      </c>
-      <c r="J10" s="64" t="s">
-        <v>633</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="81" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="95">
+      <c r="C11" s="72">
         <v>1157603</v>
       </c>
       <c r="D11" s="43" t="s">
@@ -5284,11 +5350,11 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="75"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="96">
+      <c r="C12" s="73">
         <v>514990</v>
       </c>
       <c r="D12" s="44" t="s">
@@ -5314,11 +5380,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="75"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="96">
+      <c r="C13" s="73">
         <v>8866180</v>
       </c>
       <c r="D13" s="44" t="s">
@@ -5344,33 +5410,33 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="76"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="74">
         <v>68350000</v>
       </c>
       <c r="D14" s="45">
         <v>195</v>
       </c>
       <c r="E14" s="45" t="s">
+        <v>617</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>618</v>
+      </c>
+      <c r="G14" s="45" t="s">
         <v>619</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="H14" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="J14" s="64" t="s">
         <v>620</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>621</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>624</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>623</v>
-      </c>
-      <c r="J14" s="64" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5378,28 +5444,28 @@
         <v>508</v>
       </c>
       <c r="B15" s="51"/>
-      <c r="C15" s="100"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="54">
         <f>D6+D10+D14</f>
         <v>808</v>
       </c>
       <c r="E15" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>635</v>
+      </c>
+      <c r="G15" s="54" t="s">
         <v>636</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="H15" s="54" t="s">
+        <v>639</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>638</v>
+      </c>
+      <c r="J15" s="54" t="s">
         <v>637</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>638</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>641</v>
-      </c>
-      <c r="I15" s="54" t="s">
-        <v>640</v>
-      </c>
-      <c r="J15" s="54" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -6052,42 +6118,42 @@
     <row r="1" spans="1:11" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="55"/>
       <c r="B1" s="47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D1" s="42" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>610</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>611</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="G1" s="42" t="s">
         <v>612</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>613</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>614</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="J1" s="42" t="s">
         <v>615</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="K1" s="42" t="s">
         <v>616</v>
       </c>
-      <c r="J1" s="42" t="s">
-        <v>617</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>618</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2" s="43">
         <v>33</v>
@@ -6118,9 +6184,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="75"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C3" s="44">
         <v>32</v>
@@ -6151,9 +6217,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="13" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C4" s="44">
         <v>27</v>
@@ -6184,7 +6250,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="76"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="15" t="s">
         <v>499</v>
       </c>
@@ -6192,13 +6258,13 @@
         <v>92</v>
       </c>
       <c r="D5" s="45" t="s">
+        <v>590</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>591</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>592</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>593</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>594</v>
       </c>
       <c r="G5" s="45" t="s">
         <v>95</v>
@@ -6217,11 +6283,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="81" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C6" s="43">
         <v>112</v>
@@ -6252,9 +6318,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="75"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C7" s="44">
         <v>21</v>
@@ -6285,9 +6351,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="75"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="13" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C8" s="44">
         <v>131</v>
@@ -6318,7 +6384,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="76"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="15" t="s">
         <v>499</v>
       </c>
@@ -6326,13 +6392,13 @@
         <v>264</v>
       </c>
       <c r="D9" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>594</v>
+      </c>
+      <c r="F9" s="45" t="s">
         <v>595</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>596</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>597</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>420</v>
@@ -6344,18 +6410,18 @@
         <v>27</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="81" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C10" s="43">
         <v>181</v>
@@ -6386,9 +6452,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="75"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C11" s="44">
         <v>59</v>
@@ -6419,9 +6485,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="75"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="13" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C12" s="44">
         <v>95</v>
@@ -6452,7 +6518,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="76"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="15" t="s">
         <v>499</v>
       </c>
@@ -6460,16 +6526,16 @@
         <v>335</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F13" s="45" t="s">
         <v>417</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H13" s="45" t="s">
         <v>27</v>
@@ -6478,18 +6544,18 @@
         <v>419</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K13" s="45" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="81" t="s">
         <v>508</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C14" s="43">
         <v>326</v>
@@ -6520,9 +6586,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="75"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C15" s="44">
         <v>112</v>
@@ -6553,9 +6619,9 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="75"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="13" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C16" s="44">
         <v>253</v>
@@ -6586,7 +6652,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="90"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="18" t="s">
         <v>499</v>
       </c>
@@ -6594,28 +6660,28 @@
         <v>691</v>
       </c>
       <c r="D17" s="46" t="s">
+        <v>602</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>603</v>
+      </c>
+      <c r="F17" s="46" t="s">
         <v>604</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="G17" s="46" t="s">
         <v>605</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>606</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>607</v>
       </c>
       <c r="H17" s="46" t="s">
         <v>422</v>
       </c>
       <c r="I17" s="46" t="s">
+        <v>606</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>607</v>
+      </c>
+      <c r="K17" s="46" t="s">
         <v>608</v>
-      </c>
-      <c r="J17" s="46" t="s">
-        <v>609</v>
-      </c>
-      <c r="K17" s="46" t="s">
-        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -6641,10 +6707,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>396</v>
@@ -6703,11 +6769,11 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="101" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2">
         <v>33</v>
@@ -6794,9 +6860,9 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
+      <c r="A3" s="101"/>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C3">
         <v>32</v>
@@ -6883,9 +6949,9 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
+      <c r="A4" s="101"/>
       <c r="B4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C4">
         <v>27</v>
@@ -6972,7 +7038,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="4" t="s">
         <v>499</v>
       </c>
@@ -7061,11 +7127,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="101" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C6">
         <v>112</v>
@@ -7152,9 +7218,9 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
+      <c r="A7" s="101"/>
       <c r="B7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -7241,9 +7307,9 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8" s="92"/>
+      <c r="A8" s="101"/>
       <c r="B8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C8">
         <v>131</v>
@@ -7330,7 +7396,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="4" t="s">
         <v>499</v>
       </c>
@@ -7419,11 +7485,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="101" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C10">
         <v>181</v>
@@ -7510,9 +7576,9 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
+      <c r="A11" s="101"/>
       <c r="B11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C11">
         <v>59</v>
@@ -7599,9 +7665,9 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A12" s="92"/>
+      <c r="A12" s="101"/>
       <c r="B12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C12">
         <v>95</v>
@@ -7688,7 +7754,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="4" t="s">
         <v>499</v>
       </c>
@@ -7777,11 +7843,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="101" t="s">
         <v>508</v>
       </c>
       <c r="B14" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C14">
         <v>326</v>
@@ -7868,9 +7934,9 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
+      <c r="A15" s="101"/>
       <c r="B15" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C15">
         <v>112</v>
@@ -7957,9 +8023,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
+      <c r="A16" s="101"/>
       <c r="B16" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C16">
         <v>253</v>
@@ -8046,7 +8112,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="4" t="s">
         <v>499</v>
       </c>
@@ -8157,10 +8223,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>396</v>
@@ -8219,11 +8285,11 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="101" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C2">
         <v>33</v>
@@ -8278,9 +8344,9 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
+      <c r="A3" s="101"/>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C3">
         <v>32</v>
@@ -8335,9 +8401,9 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
+      <c r="A4" s="101"/>
       <c r="B4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C4">
         <v>27</v>
@@ -8392,7 +8458,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="4" t="s">
         <v>499</v>
       </c>
@@ -8473,11 +8539,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="101" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C6">
         <v>112</v>
@@ -8532,9 +8598,9 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
+      <c r="A7" s="101"/>
       <c r="B7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -8589,9 +8655,9 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="92"/>
+      <c r="A8" s="101"/>
       <c r="B8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C8">
         <v>131</v>
@@ -8646,7 +8712,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="4" t="s">
         <v>499</v>
       </c>
@@ -8727,11 +8793,11 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="101" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C10">
         <v>181</v>
@@ -8786,9 +8852,9 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
+      <c r="A11" s="101"/>
       <c r="B11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C11">
         <v>59</v>
@@ -8843,9 +8909,9 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="92"/>
+      <c r="A12" s="101"/>
       <c r="B12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C12">
         <v>95</v>
@@ -8900,7 +8966,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="4" t="s">
         <v>499</v>
       </c>
@@ -8981,11 +9047,11 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="101" t="s">
         <v>508</v>
       </c>
       <c r="B14" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C14">
         <v>326</v>
@@ -9040,9 +9106,9 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
+      <c r="A15" s="101"/>
       <c r="B15" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C15">
         <v>112</v>
@@ -9097,9 +9163,9 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
+      <c r="A16" s="101"/>
       <c r="B16" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C16">
         <v>253</v>
@@ -9154,7 +9220,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="4" t="s">
         <v>499</v>
       </c>
@@ -10260,8 +10326,8 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10304,10 +10370,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="88" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -10326,8 +10392,8 @@
       <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="83"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="13" t="s">
         <v>565</v>
       </c>
@@ -10344,8 +10410,8 @@
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="83"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="13" t="s">
         <v>566</v>
       </c>
@@ -10362,8 +10428,8 @@
       <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="15" t="s">
         <v>499</v>
       </c>
@@ -10384,9 +10450,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="83"/>
-      <c r="B6" s="79" t="s">
-        <v>583</v>
+      <c r="A6" s="92"/>
+      <c r="B6" s="88" t="s">
+        <v>581</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>567</v>
@@ -10404,8 +10470,8 @@
       <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="13" t="s">
         <v>565</v>
       </c>
@@ -10422,8 +10488,8 @@
       <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="83"/>
-      <c r="B8" s="80"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="13" t="s">
         <v>566</v>
       </c>
@@ -10440,8 +10506,8 @@
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="83"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="15" t="s">
         <v>499</v>
       </c>
@@ -10462,8 +10528,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
-      <c r="B10" s="79" t="s">
+      <c r="A10" s="92"/>
+      <c r="B10" s="88" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -10482,8 +10548,8 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="83"/>
-      <c r="B11" s="80"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="13" t="s">
         <v>565</v>
       </c>
@@ -10500,8 +10566,8 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="83"/>
-      <c r="B12" s="80"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="13" t="s">
         <v>566</v>
       </c>
@@ -10518,8 +10584,8 @@
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="83"/>
-      <c r="B13" s="81"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="15" t="s">
         <v>499</v>
       </c>
@@ -10540,7 +10606,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="84"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="17" t="s">
         <v>507</v>
       </c>
@@ -10562,10 +10628,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="95" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -10584,8 +10650,8 @@
       <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="83"/>
-      <c r="B16" s="80"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="13" t="s">
         <v>565</v>
       </c>
@@ -10602,8 +10668,8 @@
       <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="83"/>
-      <c r="B17" s="80"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="13" t="s">
         <v>566</v>
       </c>
@@ -10620,8 +10686,8 @@
       <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="83"/>
-      <c r="B18" s="81"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="90"/>
       <c r="C18" s="15" t="s">
         <v>499</v>
       </c>
@@ -10642,8 +10708,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="83"/>
-      <c r="B19" s="79" t="s">
+      <c r="A19" s="92"/>
+      <c r="B19" s="88" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -10662,8 +10728,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="83"/>
-      <c r="B20" s="80"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="13" t="s">
         <v>565</v>
       </c>
@@ -10680,8 +10746,8 @@
       <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="83"/>
-      <c r="B21" s="80"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="13" t="s">
         <v>566</v>
       </c>
@@ -10698,8 +10764,8 @@
       <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="83"/>
-      <c r="B22" s="81"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="15" t="s">
         <v>499</v>
       </c>
@@ -10720,8 +10786,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="83"/>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="92"/>
+      <c r="B23" s="88" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -10740,8 +10806,8 @@
       <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="83"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="13" t="s">
         <v>565</v>
       </c>
@@ -10758,8 +10824,8 @@
       <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="83"/>
-      <c r="B25" s="80"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="13" t="s">
         <v>566</v>
       </c>
@@ -10776,8 +10842,8 @@
       <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="83"/>
-      <c r="B26" s="81"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="15" t="s">
         <v>499</v>
       </c>
@@ -10804,7 +10870,7 @@
       <c r="N26"/>
     </row>
     <row r="27" spans="1:14" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="84"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="17" t="s">
         <v>505</v>
       </c>
@@ -10831,10 +10897,10 @@
       <c r="M27"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="95" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -10854,8 +10920,8 @@
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="83"/>
-      <c r="B29" s="80"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="13" t="s">
         <v>565</v>
       </c>
@@ -10873,8 +10939,8 @@
       <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="83"/>
-      <c r="B30" s="80"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="13" t="s">
         <v>566</v>
       </c>
@@ -10891,8 +10957,8 @@
       <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="83"/>
-      <c r="B31" s="81"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="15" t="s">
         <v>499</v>
       </c>
@@ -10913,8 +10979,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="83"/>
-      <c r="B32" s="79" t="s">
+      <c r="A32" s="92"/>
+      <c r="B32" s="88" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -10933,8 +10999,8 @@
       <c r="H32" s="34"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="83"/>
-      <c r="B33" s="80"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="13" t="s">
         <v>565</v>
       </c>
@@ -10951,8 +11017,8 @@
       <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="83"/>
-      <c r="B34" s="80"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="13" t="s">
         <v>566</v>
       </c>
@@ -10969,8 +11035,8 @@
       <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="83"/>
-      <c r="B35" s="81"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="15" t="s">
         <v>499</v>
       </c>
@@ -10991,8 +11057,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="83"/>
-      <c r="B36" s="79" t="s">
+      <c r="A36" s="92"/>
+      <c r="B36" s="88" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -11011,8 +11077,8 @@
       <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="83"/>
-      <c r="B37" s="80"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="13" t="s">
         <v>565</v>
       </c>
@@ -11029,8 +11095,8 @@
       <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="83"/>
-      <c r="B38" s="80"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="13" t="s">
         <v>566</v>
       </c>
@@ -11047,8 +11113,8 @@
       <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="83"/>
-      <c r="B39" s="81"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="90"/>
       <c r="C39" s="15" t="s">
         <v>499</v>
       </c>
@@ -11069,7 +11135,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="84"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="17" t="s">
         <v>506</v>
       </c>
@@ -12229,7 +12295,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12242,7 +12308,7 @@
     <col min="6" max="6" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>487</v>
       </c>
@@ -12253,20 +12319,20 @@
         <v>493</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>568</v>
+        <v>645</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="88" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -12283,8 +12349,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="88"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="13" t="s">
         <v>565</v>
       </c>
@@ -12299,8 +12365,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="88"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="13" t="s">
         <v>566</v>
       </c>
@@ -12315,8 +12381,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="88"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="15" t="s">
         <v>499</v>
       </c>
@@ -12331,9 +12397,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="88"/>
-      <c r="B6" s="79" t="s">
-        <v>583</v>
+      <c r="A6" s="97"/>
+      <c r="B6" s="88" t="s">
+        <v>581</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>567</v>
@@ -12349,8 +12415,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="88"/>
-      <c r="B7" s="80" t="s">
+      <c r="A7" s="97"/>
+      <c r="B7" s="89" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -12367,8 +12433,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="88"/>
-      <c r="B8" s="80" t="s">
+      <c r="A8" s="97"/>
+      <c r="B8" s="89" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -12385,8 +12451,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="88"/>
-      <c r="B9" s="81" t="s">
+      <c r="A9" s="97"/>
+      <c r="B9" s="90" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -12403,8 +12469,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="88"/>
-      <c r="B10" s="79" t="s">
+      <c r="A10" s="97"/>
+      <c r="B10" s="88" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -12421,8 +12487,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="88"/>
-      <c r="B11" s="80" t="s">
+      <c r="A11" s="97"/>
+      <c r="B11" s="89" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -12439,8 +12505,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="88"/>
-      <c r="B12" s="80" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="89" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -12457,8 +12523,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="88"/>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="97"/>
+      <c r="B13" s="90" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -12475,7 +12541,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="89"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="41" t="s">
         <v>507</v>
       </c>
@@ -12484,17 +12550,17 @@
         <v>26</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="95" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -12511,8 +12577,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="88"/>
-      <c r="B16" s="80" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="89" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -12529,8 +12595,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="88"/>
-      <c r="B17" s="80" t="s">
+      <c r="A17" s="97"/>
+      <c r="B17" s="89" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -12547,8 +12613,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
-      <c r="B18" s="81" t="s">
+      <c r="A18" s="97"/>
+      <c r="B18" s="90" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -12565,8 +12631,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="88"/>
-      <c r="B19" s="79" t="s">
+      <c r="A19" s="97"/>
+      <c r="B19" s="88" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -12583,8 +12649,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="88"/>
-      <c r="B20" s="80" t="s">
+      <c r="A20" s="97"/>
+      <c r="B20" s="89" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -12601,8 +12667,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="88"/>
-      <c r="B21" s="80" t="s">
+      <c r="A21" s="97"/>
+      <c r="B21" s="89" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -12619,8 +12685,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="88"/>
-      <c r="B22" s="81" t="s">
+      <c r="A22" s="97"/>
+      <c r="B22" s="90" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -12637,8 +12703,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="88"/>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="97"/>
+      <c r="B23" s="88" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -12655,8 +12721,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="88"/>
-      <c r="B24" s="80" t="s">
+      <c r="A24" s="97"/>
+      <c r="B24" s="89" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -12673,8 +12739,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="88"/>
-      <c r="B25" s="80" t="s">
+      <c r="A25" s="97"/>
+      <c r="B25" s="89" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -12691,8 +12757,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="88"/>
-      <c r="B26" s="81" t="s">
+      <c r="A26" s="97"/>
+      <c r="B26" s="90" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -12709,7 +12775,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="89"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="41" t="s">
         <v>505</v>
       </c>
@@ -12718,17 +12784,17 @@
         <v>155</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="95" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -12745,8 +12811,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="88"/>
-      <c r="B29" s="80" t="s">
+      <c r="A29" s="97"/>
+      <c r="B29" s="89" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -12763,8 +12829,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="88"/>
-      <c r="B30" s="80" t="s">
+      <c r="A30" s="97"/>
+      <c r="B30" s="89" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -12781,8 +12847,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="88"/>
-      <c r="B31" s="81" t="s">
+      <c r="A31" s="97"/>
+      <c r="B31" s="90" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -12799,8 +12865,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="88"/>
-      <c r="B32" s="79" t="s">
+      <c r="A32" s="97"/>
+      <c r="B32" s="88" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -12817,8 +12883,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="88"/>
-      <c r="B33" s="80" t="s">
+      <c r="A33" s="97"/>
+      <c r="B33" s="89" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -12835,8 +12901,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="88"/>
-      <c r="B34" s="80" t="s">
+      <c r="A34" s="97"/>
+      <c r="B34" s="89" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -12853,8 +12919,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="88"/>
-      <c r="B35" s="81" t="s">
+      <c r="A35" s="97"/>
+      <c r="B35" s="90" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -12871,8 +12937,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="88"/>
-      <c r="B36" s="79" t="s">
+      <c r="A36" s="97"/>
+      <c r="B36" s="88" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -12889,8 +12955,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="88"/>
-      <c r="B37" s="80" t="s">
+      <c r="A37" s="97"/>
+      <c r="B37" s="89" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -12907,8 +12973,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="88"/>
-      <c r="B38" s="80" t="s">
+      <c r="A38" s="97"/>
+      <c r="B38" s="89" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="13" t="s">
@@ -12926,8 +12992,8 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="88"/>
-      <c r="B39" s="81" t="s">
+      <c r="A39" s="97"/>
+      <c r="B39" s="90" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -12944,7 +13010,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="89"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="41" t="s">
         <v>506</v>
       </c>
@@ -12953,7 +13019,7 @@
         <v>115</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>181</v>
@@ -12969,7 +13035,7 @@
         <v>296</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F41" s="27" t="s">
         <v>182</v>

--- a/table_outputs_formatted.xlsx
+++ b/table_outputs_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1985751\Documents\GitHub\fea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408E0A5C-0964-4B98-BF52-08E276F8698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07690C2-D054-415B-B5A6-DF34C76E0618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -72,7 +72,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>SADLER Alexandra:</t>
         </r>
@@ -81,7 +81,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Want input from co-authors on what datasets to use for India and Brazil</t>
@@ -96,7 +96,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>SADLER Alexandra:</t>
         </r>
@@ -105,7 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Brazil city level population data source: UN data - city population by sex, city and city type: https://data.un.org/Data.aspx?d=POP&amp;f=tableCode:240
@@ -122,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>SADLER Alexandra:</t>
         </r>
@@ -131,7 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Country-level totals from World Bank, 'Population, total': https://data.worldbank.org/indicator/SP.POP.TOTL</t>
@@ -146,7 +146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>SADLER Alexandra:</t>
         </r>
@@ -155,7 +155,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -170,7 +170,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>SADLER Alexandra:</t>
         </r>
@@ -179,7 +179,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Data from Office for National Statistics UK (ONS): 'Estimates of the population for the UK, England, Wales, Scotland, and Northern Ireland'; 'Mid-2022 edition of this dataset'; tab 'MYE4'; 2022 value.
@@ -205,7 +205,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>SADLER Alexandra:</t>
         </r>
@@ -214,7 +214,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Check what groupings other papers have done</t>
@@ -263,7 +263,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>SADLER Alexandra:</t>
         </r>
@@ -272,7 +272,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Need to check these extreme values</t>
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="651">
   <si>
     <t>country</t>
   </si>
@@ -2222,6 +2222,21 @@
   </si>
   <si>
     <t>Organic  vendors with multiple options for &gt;1 sentinel food, n (%)</t>
+  </si>
+  <si>
+    <t>Need to add note that products could list multiple options on them</t>
+  </si>
+  <si>
+    <t>Need to try with beverages removed</t>
+  </si>
+  <si>
+    <t>Need to switch tests</t>
+  </si>
+  <si>
+    <t>The % is differing in my code. Need to double check what I'm supposed to be calculating here</t>
+  </si>
+  <si>
+    <t>NOTE: this is because I had originally done a mean in these results (incorrectly)</t>
   </si>
 </sst>
 </file>
@@ -2279,19 +2294,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2315,8 +2317,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2326,6 +2343,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2402,7 +2425,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2464,9 +2487,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2565,7 +2585,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2594,6 +2614,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2609,16 +2669,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2663,8 +2732,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3144,10 +3213,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>573</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -3156,13 +3225,13 @@
       <c r="D1" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="78" t="s">
         <v>643</v>
       </c>
-      <c r="F1" s="102">
+      <c r="F1" s="78">
         <v>2</v>
       </c>
-      <c r="G1" s="102">
+      <c r="G1" s="78">
         <v>3</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -3170,7 +3239,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="96" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -3190,25 +3259,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="83"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="96" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -3217,38 +3286,38 @@
       <c r="C4" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="39" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="38" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="96" t="s">
         <v>74</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3257,38 +3326,38 @@
       <c r="C6" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="11" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="39" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="38" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="96" t="s">
         <v>508</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3297,30 +3366,30 @@
       <c r="C8" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="11" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="99"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="22" t="s">
         <v>215</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="22" t="s">
         <v>250</v>
       </c>
@@ -3725,7 +3794,7 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -3742,301 +3811,307 @@
     <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="53" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="52" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>487</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>578</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="96" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="I4" s="68"/>
+      <c r="G4" s="43"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="96" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="98" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="44" t="s">
         <v>334</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="44" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="96" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="G10" s="43"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="97" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="97" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="77" t="s">
         <v>317</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="43"/>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="98" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="44" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>508</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="54" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="53" t="s">
         <v>640</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="1">
+        <f>1.1/2</f>
+        <v>0.55000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -4729,267 +4804,267 @@
       <c r="B1" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>578</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>583</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="115" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="G2" s="44"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="97"/>
+      <c r="A3" s="115"/>
       <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="97"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="85"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="55">
         <v>1.472318E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="118" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="97"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="85"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="55">
         <v>2.0996089999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="118" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="G9" s="43"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="115" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>366</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="115" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="103" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="55" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="57" t="s">
         <v>508</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="54" t="s">
+      <c r="B13" s="51"/>
+      <c r="C13" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="53" t="s">
         <v>390</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="53" t="s">
         <v>392</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="56" t="s">
         <v>514</v>
       </c>
     </row>
@@ -5012,7 +5087,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5026,458 +5101,458 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="102" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="102" t="s">
         <v>488</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="104" t="s">
         <v>486</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="102" t="s">
         <v>489</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="94" t="s">
         <v>493</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="95" t="s">
         <v>642</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="60" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="59" t="s">
         <v>490</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="59" t="s">
         <v>494</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="59" t="s">
         <v>495</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="59" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="96" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="74">
         <v>11760550</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="60" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="72">
         <v>20673280</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="61" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="82"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="72">
         <v>196312</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="61" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="75">
         <v>216422450</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="65">
         <v>126</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="65" t="s">
         <v>623</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="65" t="s">
         <v>624</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="65" t="s">
         <v>625</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="66" t="s">
         <v>627</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="66" t="s">
         <v>626</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="66" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="80">
         <v>11068877</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="82" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="82"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="84">
         <v>525002</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="86" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="82"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="84">
         <v>2385110</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="86" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="87" t="s">
         <v>499</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="88">
         <v>1428627660</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="89">
         <v>487</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="89" t="s">
         <v>628</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="89" t="s">
         <v>629</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="89" t="s">
         <v>630</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="90" t="s">
         <v>633</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="90" t="s">
         <v>632</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="90" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="96" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="71">
         <v>1157603</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="60" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="82"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="72">
         <v>514990</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="62" t="s">
+      <c r="I12" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="61" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="82"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="72">
         <v>8866180</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="61" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="83"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="73">
         <v>68350000</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>195</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="44" t="s">
         <v>617</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="44" t="s">
         <v>619</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="63" t="s">
         <v>622</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="J14" s="63" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="50" t="s">
         <v>508</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="54">
+      <c r="B15" s="50"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="53">
         <f>D6+D10+D14</f>
         <v>808</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="53" t="s">
         <v>634</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="53" t="s">
         <v>635</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="53" t="s">
         <v>636</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="53" t="s">
         <v>639</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="53" t="s">
         <v>638</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="53" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="65"/>
+      <c r="F18" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6102,10 +6177,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6115,573 +6190,584 @@
     <col min="4" max="11" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55"/>
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="54"/>
+      <c r="B1" s="46" t="s">
         <v>588</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>589</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>609</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>610</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>613</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>614</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>615</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="96" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="42">
         <v>33</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>439</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>441</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>442</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>443</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="42" t="s">
         <v>445</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="42" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
+      <c r="M2" s="91" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="97"/>
       <c r="B3" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="43">
         <v>32</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>446</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>443</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="43" t="s">
         <v>443</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
+      <c r="M3" s="120" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="97"/>
       <c r="B4" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="43">
         <v>27</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>450</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="43" t="s">
         <v>451</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>452</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="43" t="s">
         <v>453</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="43" t="s">
         <v>443</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="43" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="98"/>
       <c r="B5" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <v>92</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>590</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>591</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="44" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="81" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="96" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="42">
         <v>112</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>460</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="82"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="97"/>
       <c r="B7" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="43">
         <v>21</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>463</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>465</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="82"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="97"/>
       <c r="B8" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="43">
         <v>131</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="43" t="s">
         <v>469</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="43" t="s">
         <v>470</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="43" t="s">
         <v>471</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="43" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="83"/>
+    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="98"/>
       <c r="B9" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>264</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>593</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>594</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="44" t="s">
         <v>595</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="44" t="s">
         <v>596</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="44" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="81" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="96" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="42">
         <v>181</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="42" t="s">
         <v>475</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="42" t="s">
         <v>477</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="42" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="82"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="97"/>
       <c r="B11" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="43">
         <v>59</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>479</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="82"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="97"/>
       <c r="B12" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="43">
         <v>95</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="83"/>
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="98"/>
       <c r="B13" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="44">
         <v>335</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="44" t="s">
         <v>599</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="44" t="s">
         <v>417</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="44" t="s">
         <v>601</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="K13" s="44" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="81" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="96" t="s">
         <v>508</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="42">
         <v>326</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="K14" s="42" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="82"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="97"/>
       <c r="B15" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="43">
         <v>112</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="43" t="s">
         <v>425</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="82"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="97"/>
       <c r="B16" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="43">
         <v>253</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="43" t="s">
         <v>430</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="43" t="s">
         <v>431</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="43" t="s">
         <v>435</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="43" t="s">
         <v>436</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="43" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="99"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="45">
         <v>691</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="45" t="s">
         <v>602</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="45" t="s">
         <v>603</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="45" t="s">
         <v>604</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="45" t="s">
         <v>605</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="45" t="s">
         <v>422</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="45" t="s">
         <v>606</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="45" t="s">
         <v>607</v>
       </c>
-      <c r="K17" s="46" t="s">
+      <c r="K17" s="45" t="s">
         <v>608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="91" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -6692,6 +6778,7 @@
     <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6769,7 +6856,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="119" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -6860,7 +6947,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="101"/>
+      <c r="A3" s="119"/>
       <c r="B3" t="s">
         <v>587</v>
       </c>
@@ -6949,7 +7036,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="101"/>
+      <c r="A4" s="119"/>
       <c r="B4" t="s">
         <v>586</v>
       </c>
@@ -7038,7 +7125,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="101"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="4" t="s">
         <v>499</v>
       </c>
@@ -7048,7 +7135,7 @@
       <c r="D5" s="4">
         <v>81</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="58">
         <v>0.88043478260869568</v>
       </c>
       <c r="F5" s="4" t="str">
@@ -7058,7 +7145,7 @@
       <c r="G5" s="4">
         <v>10</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="58">
         <v>0.10869565217391304</v>
       </c>
       <c r="I5" s="4" t="str">
@@ -7068,7 +7155,7 @@
       <c r="J5" s="4">
         <v>8</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="58">
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="L5" s="4" t="str">
@@ -7078,7 +7165,7 @@
       <c r="M5" s="4">
         <v>6</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="58">
         <v>6.5217391304347824E-2</v>
       </c>
       <c r="O5" s="4" t="str">
@@ -7088,7 +7175,7 @@
       <c r="P5" s="4">
         <v>2</v>
       </c>
-      <c r="Q5" s="59">
+      <c r="Q5" s="58">
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="R5" s="4" t="str">
@@ -7098,7 +7185,7 @@
       <c r="S5" s="4">
         <v>1</v>
       </c>
-      <c r="T5" s="59">
+      <c r="T5" s="58">
         <v>1.0869565217391304E-2</v>
       </c>
       <c r="U5" s="4" t="str">
@@ -7108,7 +7195,7 @@
       <c r="V5" s="4">
         <v>13</v>
       </c>
-      <c r="W5" s="59">
+      <c r="W5" s="58">
         <v>0.14130434782608695</v>
       </c>
       <c r="X5" s="4" t="str">
@@ -7118,7 +7205,7 @@
       <c r="Y5" s="4">
         <v>2</v>
       </c>
-      <c r="Z5" s="59">
+      <c r="Z5" s="58">
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="AA5" s="4" t="str">
@@ -7127,7 +7214,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="119" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
@@ -7218,7 +7305,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7" s="101"/>
+      <c r="A7" s="119"/>
       <c r="B7" t="s">
         <v>587</v>
       </c>
@@ -7307,7 +7394,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8" s="101"/>
+      <c r="A8" s="119"/>
       <c r="B8" t="s">
         <v>586</v>
       </c>
@@ -7396,7 +7483,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="101"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="4" t="s">
         <v>499</v>
       </c>
@@ -7406,7 +7493,7 @@
       <c r="D9" s="4">
         <v>80</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="58">
         <v>0.30303030303030304</v>
       </c>
       <c r="F9" s="4" t="str">
@@ -7416,7 +7503,7 @@
       <c r="G9" s="4">
         <v>184</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="58">
         <v>0.69696969696969702</v>
       </c>
       <c r="I9" s="4" t="str">
@@ -7426,7 +7513,7 @@
       <c r="J9" s="4">
         <v>4</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="58">
         <v>1.5151515151515152E-2</v>
       </c>
       <c r="L9" s="4" t="str">
@@ -7436,7 +7523,7 @@
       <c r="M9" s="4">
         <v>15</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="58">
         <v>5.6818181818181816E-2</v>
       </c>
       <c r="O9" s="4" t="str">
@@ -7446,7 +7533,7 @@
       <c r="P9" s="4">
         <v>0</v>
       </c>
-      <c r="Q9" s="59">
+      <c r="Q9" s="58">
         <v>0</v>
       </c>
       <c r="R9" s="4" t="str">
@@ -7456,7 +7543,7 @@
       <c r="S9" s="4">
         <v>0</v>
       </c>
-      <c r="T9" s="59">
+      <c r="T9" s="58">
         <v>0</v>
       </c>
       <c r="U9" s="4" t="str">
@@ -7466,7 +7553,7 @@
       <c r="V9" s="4">
         <v>11</v>
       </c>
-      <c r="W9" s="59">
+      <c r="W9" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="X9" s="4" t="str">
@@ -7476,7 +7563,7 @@
       <c r="Y9" s="4">
         <v>10</v>
       </c>
-      <c r="Z9" s="59">
+      <c r="Z9" s="58">
         <v>3.787878787878788E-2</v>
       </c>
       <c r="AA9" s="4" t="str">
@@ -7485,7 +7572,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="119" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
@@ -7576,7 +7663,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A11" s="101"/>
+      <c r="A11" s="119"/>
       <c r="B11" t="s">
         <v>587</v>
       </c>
@@ -7665,7 +7752,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A12" s="101"/>
+      <c r="A12" s="119"/>
       <c r="B12" t="s">
         <v>586</v>
       </c>
@@ -7754,7 +7841,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="101"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="4" t="s">
         <v>499</v>
       </c>
@@ -7764,7 +7851,7 @@
       <c r="D13" s="4">
         <v>279</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="58">
         <v>0.83283582089552244</v>
       </c>
       <c r="F13" s="4" t="str">
@@ -7774,7 +7861,7 @@
       <c r="G13" s="4">
         <v>55</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="58">
         <v>0.16417910447761194</v>
       </c>
       <c r="I13" s="4" t="str">
@@ -7784,7 +7871,7 @@
       <c r="J13" s="4">
         <v>3</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="58">
         <v>8.9552238805970154E-3</v>
       </c>
       <c r="L13" s="4" t="str">
@@ -7794,7 +7881,7 @@
       <c r="M13" s="4">
         <v>5</v>
       </c>
-      <c r="N13" s="59">
+      <c r="N13" s="58">
         <v>1.4925373134328358E-2</v>
       </c>
       <c r="O13" s="4" t="str">
@@ -7804,7 +7891,7 @@
       <c r="P13" s="4">
         <v>0</v>
       </c>
-      <c r="Q13" s="59">
+      <c r="Q13" s="58">
         <v>0</v>
       </c>
       <c r="R13" s="4" t="str">
@@ -7814,7 +7901,7 @@
       <c r="S13" s="4">
         <v>2</v>
       </c>
-      <c r="T13" s="59">
+      <c r="T13" s="58">
         <v>5.9701492537313433E-3</v>
       </c>
       <c r="U13" s="4" t="str">
@@ -7824,7 +7911,7 @@
       <c r="V13" s="4">
         <v>10</v>
       </c>
-      <c r="W13" s="59">
+      <c r="W13" s="58">
         <v>2.9850746268656716E-2</v>
       </c>
       <c r="X13" s="4" t="str">
@@ -7834,7 +7921,7 @@
       <c r="Y13" s="4">
         <v>4</v>
       </c>
-      <c r="Z13" s="59">
+      <c r="Z13" s="58">
         <v>1.1940298507462687E-2</v>
       </c>
       <c r="AA13" s="4" t="str">
@@ -7843,7 +7930,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="119" t="s">
         <v>508</v>
       </c>
       <c r="B14" t="s">
@@ -7934,7 +8021,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A15" s="101"/>
+      <c r="A15" s="119"/>
       <c r="B15" t="s">
         <v>587</v>
       </c>
@@ -8023,7 +8110,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A16" s="101"/>
+      <c r="A16" s="119"/>
       <c r="B16" t="s">
         <v>586</v>
       </c>
@@ -8112,7 +8199,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="101"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="4" t="s">
         <v>499</v>
       </c>
@@ -8122,7 +8209,7 @@
       <c r="D17" s="4">
         <v>440</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="58">
         <v>0.63675832127351661</v>
       </c>
       <c r="F17" s="4" t="str">
@@ -8132,7 +8219,7 @@
       <c r="G17" s="4">
         <v>249</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="58">
         <v>0.36034732272069464</v>
       </c>
       <c r="I17" s="4" t="str">
@@ -8142,7 +8229,7 @@
       <c r="J17" s="4">
         <v>15</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="58">
         <v>2.1707670043415339E-2</v>
       </c>
       <c r="L17" s="4" t="str">
@@ -8152,7 +8239,7 @@
       <c r="M17" s="4">
         <v>26</v>
       </c>
-      <c r="N17" s="59">
+      <c r="N17" s="58">
         <v>3.7626628075253257E-2</v>
       </c>
       <c r="O17" s="4" t="str">
@@ -8162,7 +8249,7 @@
       <c r="P17" s="4">
         <v>2</v>
       </c>
-      <c r="Q17" s="59">
+      <c r="Q17" s="58">
         <v>2.8943560057887118E-3</v>
       </c>
       <c r="R17" s="4" t="str">
@@ -8172,7 +8259,7 @@
       <c r="S17" s="4">
         <v>3</v>
       </c>
-      <c r="T17" s="59">
+      <c r="T17" s="58">
         <v>4.3415340086830683E-3</v>
       </c>
       <c r="U17" s="4" t="str">
@@ -8182,7 +8269,7 @@
       <c r="V17" s="4">
         <v>34</v>
       </c>
-      <c r="W17" s="59">
+      <c r="W17" s="58">
         <v>4.9204052098408106E-2</v>
       </c>
       <c r="X17" s="4" t="str">
@@ -8192,7 +8279,7 @@
       <c r="Y17" s="4">
         <v>16</v>
       </c>
-      <c r="Z17" s="59">
+      <c r="Z17" s="58">
         <v>2.3154848046309694E-2</v>
       </c>
       <c r="AA17" s="4" t="str">
@@ -8285,7 +8372,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="119" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -8344,7 +8431,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="101"/>
+      <c r="A3" s="119"/>
       <c r="B3" t="s">
         <v>587</v>
       </c>
@@ -8401,7 +8488,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="101"/>
+      <c r="A4" s="119"/>
       <c r="B4" t="s">
         <v>586</v>
       </c>
@@ -8458,7 +8545,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="101"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="4" t="s">
         <v>499</v>
       </c>
@@ -8470,7 +8557,7 @@
         <f t="shared" ref="D5:Y5" si="0">SUM(D2:D4)</f>
         <v>81</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="58">
         <f>D5/$C5</f>
         <v>0.88043478260869568</v>
       </c>
@@ -8479,7 +8566,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="58">
         <f>G5/$C5</f>
         <v>0.10869565217391304</v>
       </c>
@@ -8488,7 +8575,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="58">
         <f>J5/$C5</f>
         <v>8.6956521739130432E-2</v>
       </c>
@@ -8497,7 +8584,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="58">
         <f>M5/$C5</f>
         <v>6.5217391304347824E-2</v>
       </c>
@@ -8506,7 +8593,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q5" s="59">
+      <c r="Q5" s="58">
         <f>P5/$C5</f>
         <v>2.1739130434782608E-2</v>
       </c>
@@ -8515,7 +8602,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T5" s="59">
+      <c r="T5" s="58">
         <f>S5/$C5</f>
         <v>1.0869565217391304E-2</v>
       </c>
@@ -8524,7 +8611,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="W5" s="59">
+      <c r="W5" s="58">
         <f>V5/$C5</f>
         <v>0.14130434782608695</v>
       </c>
@@ -8533,13 +8620,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Z5" s="59">
+      <c r="Z5" s="58">
         <f>Y5/$C5</f>
         <v>2.1739130434782608E-2</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="119" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
@@ -8598,7 +8685,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="101"/>
+      <c r="A7" s="119"/>
       <c r="B7" t="s">
         <v>587</v>
       </c>
@@ -8655,7 +8742,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="101"/>
+      <c r="A8" s="119"/>
       <c r="B8" t="s">
         <v>586</v>
       </c>
@@ -8712,7 +8799,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="101"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="4" t="s">
         <v>499</v>
       </c>
@@ -8724,7 +8811,7 @@
         <f t="shared" ref="D9" si="1">SUM(D6:D8)</f>
         <v>80</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="58">
         <f>D9/$C9</f>
         <v>0.30303030303030304</v>
       </c>
@@ -8733,7 +8820,7 @@
         <f t="shared" ref="G9" si="2">SUM(G6:G8)</f>
         <v>184</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="58">
         <f>G9/$C9</f>
         <v>0.69696969696969702</v>
       </c>
@@ -8742,7 +8829,7 @@
         <f t="shared" ref="J9" si="3">SUM(J6:J8)</f>
         <v>4</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="58">
         <f>J9/$C9</f>
         <v>1.5151515151515152E-2</v>
       </c>
@@ -8751,7 +8838,7 @@
         <f t="shared" ref="M9" si="4">SUM(M6:M8)</f>
         <v>15</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="58">
         <f>M9/$C9</f>
         <v>5.6818181818181816E-2</v>
       </c>
@@ -8760,7 +8847,7 @@
         <f t="shared" ref="P9" si="5">SUM(P6:P8)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="59">
+      <c r="Q9" s="58">
         <f>P9/$C9</f>
         <v>0</v>
       </c>
@@ -8769,7 +8856,7 @@
         <f t="shared" ref="S9" si="6">SUM(S6:S8)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="59">
+      <c r="T9" s="58">
         <f>S9/$C9</f>
         <v>0</v>
       </c>
@@ -8778,7 +8865,7 @@
         <f t="shared" ref="V9" si="7">SUM(V6:V8)</f>
         <v>11</v>
       </c>
-      <c r="W9" s="59">
+      <c r="W9" s="58">
         <f>V9/$C9</f>
         <v>4.1666666666666664E-2</v>
       </c>
@@ -8787,13 +8874,13 @@
         <f t="shared" ref="Y9" si="8">SUM(Y6:Y8)</f>
         <v>10</v>
       </c>
-      <c r="Z9" s="59">
+      <c r="Z9" s="58">
         <f>Y9/$C9</f>
         <v>3.787878787878788E-2</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="119" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
@@ -8852,7 +8939,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="101"/>
+      <c r="A11" s="119"/>
       <c r="B11" t="s">
         <v>587</v>
       </c>
@@ -8909,7 +8996,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="101"/>
+      <c r="A12" s="119"/>
       <c r="B12" t="s">
         <v>586</v>
       </c>
@@ -8966,7 +9053,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="101"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="4" t="s">
         <v>499</v>
       </c>
@@ -8978,7 +9065,7 @@
         <f t="shared" ref="D13" si="9">SUM(D10:D12)</f>
         <v>279</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="58">
         <f>D13/$C13</f>
         <v>0.83283582089552244</v>
       </c>
@@ -8987,7 +9074,7 @@
         <f t="shared" ref="G13" si="10">SUM(G10:G12)</f>
         <v>55</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="58">
         <f>G13/$C13</f>
         <v>0.16417910447761194</v>
       </c>
@@ -8996,7 +9083,7 @@
         <f t="shared" ref="J13" si="11">SUM(J10:J12)</f>
         <v>3</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="58">
         <f>J13/$C13</f>
         <v>8.9552238805970154E-3</v>
       </c>
@@ -9005,7 +9092,7 @@
         <f t="shared" ref="M13" si="12">SUM(M10:M12)</f>
         <v>5</v>
       </c>
-      <c r="N13" s="59">
+      <c r="N13" s="58">
         <f>M13/$C13</f>
         <v>1.4925373134328358E-2</v>
       </c>
@@ -9014,7 +9101,7 @@
         <f t="shared" ref="P13" si="13">SUM(P10:P12)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="59">
+      <c r="Q13" s="58">
         <f>P13/$C13</f>
         <v>0</v>
       </c>
@@ -9023,7 +9110,7 @@
         <f t="shared" ref="S13" si="14">SUM(S10:S12)</f>
         <v>2</v>
       </c>
-      <c r="T13" s="59">
+      <c r="T13" s="58">
         <f>S13/$C13</f>
         <v>5.9701492537313433E-3</v>
       </c>
@@ -9032,7 +9119,7 @@
         <f t="shared" ref="V13" si="15">SUM(V10:V12)</f>
         <v>10</v>
       </c>
-      <c r="W13" s="59">
+      <c r="W13" s="58">
         <f>V13/$C13</f>
         <v>2.9850746268656716E-2</v>
       </c>
@@ -9041,13 +9128,13 @@
         <f t="shared" ref="Y13" si="16">SUM(Y10:Y12)</f>
         <v>4</v>
       </c>
-      <c r="Z13" s="59">
+      <c r="Z13" s="58">
         <f>Y13/$C13</f>
         <v>1.1940298507462687E-2</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="119" t="s">
         <v>508</v>
       </c>
       <c r="B14" t="s">
@@ -9106,7 +9193,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="101"/>
+      <c r="A15" s="119"/>
       <c r="B15" t="s">
         <v>587</v>
       </c>
@@ -9163,7 +9250,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="101"/>
+      <c r="A16" s="119"/>
       <c r="B16" t="s">
         <v>586</v>
       </c>
@@ -9220,7 +9307,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="101"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="4" t="s">
         <v>499</v>
       </c>
@@ -9232,7 +9319,7 @@
         <f t="shared" ref="D17" si="17">SUM(D14:D16)</f>
         <v>440</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="58">
         <f>D17/$C17</f>
         <v>0.63675832127351661</v>
       </c>
@@ -9241,7 +9328,7 @@
         <f t="shared" ref="G17" si="18">SUM(G14:G16)</f>
         <v>249</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="58">
         <f>G17/$C17</f>
         <v>0.36034732272069464</v>
       </c>
@@ -9250,7 +9337,7 @@
         <f t="shared" ref="J17" si="19">SUM(J14:J16)</f>
         <v>15</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="58">
         <f>J17/$C17</f>
         <v>2.1707670043415339E-2</v>
       </c>
@@ -9259,7 +9346,7 @@
         <f t="shared" ref="M17" si="20">SUM(M14:M16)</f>
         <v>26</v>
       </c>
-      <c r="N17" s="59">
+      <c r="N17" s="58">
         <f>M17/$C17</f>
         <v>3.7626628075253257E-2</v>
       </c>
@@ -9268,7 +9355,7 @@
         <f t="shared" ref="P17" si="21">SUM(P14:P16)</f>
         <v>2</v>
       </c>
-      <c r="Q17" s="59">
+      <c r="Q17" s="58">
         <f>P17/$C17</f>
         <v>2.8943560057887118E-3</v>
       </c>
@@ -9277,7 +9364,7 @@
         <f t="shared" ref="S17" si="22">SUM(S14:S16)</f>
         <v>3</v>
       </c>
-      <c r="T17" s="59">
+      <c r="T17" s="58">
         <f>S17/$C17</f>
         <v>4.3415340086830683E-3</v>
       </c>
@@ -9286,7 +9373,7 @@
         <f t="shared" ref="V17" si="23">SUM(V14:V16)</f>
         <v>34</v>
       </c>
-      <c r="W17" s="59">
+      <c r="W17" s="58">
         <f>V17/$C17</f>
         <v>4.9204052098408106E-2</v>
       </c>
@@ -9295,7 +9382,7 @@
         <f t="shared" ref="Y17" si="24">SUM(Y14:Y16)</f>
         <v>16</v>
       </c>
-      <c r="Z17" s="59">
+      <c r="Z17" s="58">
         <f>Y17/$C17</f>
         <v>2.3154848046309694E-2</v>
       </c>
@@ -10326,8 +10413,8 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10337,13 +10424,13 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.90625" style="5"/>
     <col min="5" max="5" width="10.90625" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" style="36" customWidth="1"/>
     <col min="7" max="7" width="15.7265625" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" style="37"/>
+    <col min="8" max="8" width="10.90625" style="36"/>
     <col min="9" max="9" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>487</v>
       </c>
@@ -10359,21 +10446,24 @@
       <c r="E1" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="78" t="s">
         <v>511</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="78" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="94" t="s">
+      <c r="I1" s="93" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -10385,15 +10475,15 @@
       <c r="E2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
-      <c r="B3" s="89"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="110"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="13" t="s">
         <v>565</v>
       </c>
@@ -10403,15 +10493,15 @@
       <c r="E3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="34"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
-      <c r="B4" s="89"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="110"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="13" t="s">
         <v>566</v>
       </c>
@@ -10421,15 +10511,15 @@
       <c r="E4" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="34"/>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
-      <c r="B5" s="90"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="110"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="15" t="s">
         <v>499</v>
       </c>
@@ -10439,19 +10529,19 @@
       <c r="E5" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>514</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="34" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="92"/>
-      <c r="B6" s="88" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="110"/>
+      <c r="B6" s="106" t="s">
         <v>581</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -10463,15 +10553,15 @@
       <c r="E6" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
-      <c r="B7" s="89"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="110"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="13" t="s">
         <v>565</v>
       </c>
@@ -10481,15 +10571,15 @@
       <c r="E7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="92"/>
-      <c r="B8" s="89"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="110"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="13" t="s">
         <v>566</v>
       </c>
@@ -10499,15 +10589,15 @@
       <c r="E8" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="34"/>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
-      <c r="B9" s="90"/>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="110"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="15" t="s">
         <v>499</v>
       </c>
@@ -10517,19 +10607,19 @@
       <c r="E9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="33">
         <v>1.123209E-3</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="34">
         <v>1.6159709999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="92"/>
-      <c r="B10" s="88" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="110"/>
+      <c r="B10" s="106" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -10541,15 +10631,15 @@
       <c r="E10" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
-      <c r="B11" s="89"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="110"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="13" t="s">
         <v>565</v>
       </c>
@@ -10559,15 +10649,15 @@
       <c r="E11" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="92"/>
-      <c r="B12" s="89"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="110"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="13" t="s">
         <v>566</v>
       </c>
@@ -10577,15 +10667,15 @@
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
-      <c r="B13" s="90"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="110"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="15" t="s">
         <v>499</v>
       </c>
@@ -10595,18 +10685,18 @@
       <c r="E13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="34">
         <v>0.30771799999999999</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="34">
         <v>0.26359709999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="93"/>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="111"/>
       <c r="B14" s="17" t="s">
         <v>507</v>
       </c>
@@ -10617,21 +10707,21 @@
       <c r="E14" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="33">
         <v>1.928758E-3</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="30">
         <v>1.759699E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="91" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="113" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -10643,15 +10733,15 @@
       <c r="E15" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
-      <c r="B16" s="89"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="110"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="13" t="s">
         <v>565</v>
       </c>
@@ -10661,15 +10751,15 @@
       <c r="E16" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="33"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="34"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="107"/>
       <c r="C17" s="13" t="s">
         <v>566</v>
       </c>
@@ -10679,15 +10769,15 @@
       <c r="E17" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="33"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="34"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="92"/>
-      <c r="B18" s="90"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="15" t="s">
         <v>499</v>
       </c>
@@ -10697,19 +10787,19 @@
       <c r="E18" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="33" t="s">
         <v>514</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="34" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="92"/>
-      <c r="B19" s="88" t="s">
+      <c r="A19" s="110"/>
+      <c r="B19" s="106" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -10721,15 +10811,15 @@
       <c r="E19" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="34"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="92"/>
-      <c r="B20" s="89"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="13" t="s">
         <v>565</v>
       </c>
@@ -10739,15 +10829,15 @@
       <c r="E20" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="33"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="34"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="92"/>
-      <c r="B21" s="89"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="13" t="s">
         <v>566</v>
       </c>
@@ -10757,15 +10847,15 @@
       <c r="E21" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="33"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H21" s="34"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="92"/>
-      <c r="B22" s="90"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="15" t="s">
         <v>499</v>
       </c>
@@ -10775,19 +10865,19 @@
       <c r="E22" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="33">
         <v>0.27935939999999998</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="34">
         <v>0.37776399999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="92"/>
-      <c r="B23" s="88" t="s">
+      <c r="A23" s="110"/>
+      <c r="B23" s="106" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -10799,15 +10889,15 @@
       <c r="E23" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="32"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="34"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="92"/>
-      <c r="B24" s="89"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="13" t="s">
         <v>565</v>
       </c>
@@ -10817,15 +10907,15 @@
       <c r="E24" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="33"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="34"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="92"/>
-      <c r="B25" s="89"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="13" t="s">
         <v>566</v>
       </c>
@@ -10835,15 +10925,15 @@
       <c r="E25" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="33"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="34"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="92"/>
-      <c r="B26" s="90"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="108"/>
       <c r="C26" s="15" t="s">
         <v>499</v>
       </c>
@@ -10853,13 +10943,13 @@
       <c r="E26" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="34">
         <v>3.3858170000000002E-3</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="34">
         <v>2.684517E-3</v>
       </c>
       <c r="I26"/>
@@ -10870,7 +10960,7 @@
       <c r="N26"/>
     </row>
     <row r="27" spans="1:14" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="93"/>
+      <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
         <v>505</v>
       </c>
@@ -10881,13 +10971,13 @@
       <c r="E27" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="33" t="s">
         <v>514</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="30" t="s">
         <v>514</v>
       </c>
       <c r="I27"/>
@@ -10897,10 +10987,10 @@
       <c r="M27"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="113" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -10912,16 +11002,16 @@
       <c r="E28" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="35"/>
       <c r="G28" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="H28" s="34"/>
+      <c r="H28" s="33"/>
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="92"/>
-      <c r="B29" s="89"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="13" t="s">
         <v>565</v>
       </c>
@@ -10931,16 +11021,16 @@
       <c r="E29" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F29" s="33"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="H29" s="34"/>
+      <c r="H29" s="33"/>
       <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="92"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="13" t="s">
         <v>566</v>
       </c>
@@ -10950,15 +11040,15 @@
       <c r="E30" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="F30" s="33"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="34"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="92"/>
-      <c r="B31" s="90"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="108"/>
       <c r="C31" s="15" t="s">
         <v>499</v>
       </c>
@@ -10968,19 +11058,19 @@
       <c r="E31" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="33">
         <v>5.5861099999999997E-2</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="34">
         <v>9.5544660000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="92"/>
-      <c r="B32" s="88" t="s">
+      <c r="A32" s="110"/>
+      <c r="B32" s="106" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -10992,15 +11082,15 @@
       <c r="E32" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F32" s="32"/>
+      <c r="F32" s="31"/>
       <c r="G32" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="34"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="92"/>
-      <c r="B33" s="89"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="107"/>
       <c r="C33" s="13" t="s">
         <v>565</v>
       </c>
@@ -11010,15 +11100,15 @@
       <c r="E33" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="33"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="H33" s="34"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="92"/>
-      <c r="B34" s="89"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="107"/>
       <c r="C34" s="13" t="s">
         <v>566</v>
       </c>
@@ -11028,15 +11118,15 @@
       <c r="E34" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F34" s="33"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="H34" s="34"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="92"/>
-      <c r="B35" s="90"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="15" t="s">
         <v>499</v>
       </c>
@@ -11046,19 +11136,19 @@
       <c r="E35" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="33">
         <v>0.82440840000000004</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="34">
         <v>0.71711979999999997</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="92"/>
-      <c r="B36" s="88" t="s">
+      <c r="A36" s="110"/>
+      <c r="B36" s="106" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -11070,15 +11160,15 @@
       <c r="E36" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="32"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H36" s="34"/>
+      <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="92"/>
-      <c r="B37" s="89"/>
+      <c r="A37" s="110"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="13" t="s">
         <v>565</v>
       </c>
@@ -11088,15 +11178,15 @@
       <c r="E37" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="33"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H37" s="34"/>
+      <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="92"/>
-      <c r="B38" s="89"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="13" t="s">
         <v>566</v>
       </c>
@@ -11106,15 +11196,15 @@
       <c r="E38" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="F38" s="33"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="H38" s="34"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="92"/>
-      <c r="B39" s="90"/>
+      <c r="A39" s="110"/>
+      <c r="B39" s="108"/>
       <c r="C39" s="15" t="s">
         <v>499</v>
       </c>
@@ -11124,18 +11214,18 @@
       <c r="E39" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="34">
         <v>7.1287390000000003E-3</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="H39" s="35">
+      <c r="H39" s="34">
         <v>4.581797E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="93"/>
+      <c r="A40" s="111"/>
       <c r="B40" s="17" t="s">
         <v>506</v>
       </c>
@@ -11146,13 +11236,13 @@
       <c r="E40" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="33">
         <v>8.9667659999999993E-3</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="H40" s="31">
+      <c r="H40" s="30">
         <v>1.0589110000000001E-3</v>
       </c>
     </row>
@@ -11168,17 +11258,20 @@
       <c r="E41" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="29" t="s">
         <v>513</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="30" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="92" t="s">
+        <v>647</v>
+      </c>
       <c r="I43" s="28"/>
     </row>
   </sheetData>
@@ -12312,7 +12405,7 @@
       <c r="A1" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>488</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -12321,18 +12414,18 @@
       <c r="D1" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>645</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -12349,8 +12442,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="97"/>
-      <c r="B3" s="89"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="13" t="s">
         <v>565</v>
       </c>
@@ -12365,8 +12458,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="97"/>
-      <c r="B4" s="89"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="13" t="s">
         <v>566</v>
       </c>
@@ -12381,8 +12474,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="97"/>
-      <c r="B5" s="90"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="15" t="s">
         <v>499</v>
       </c>
@@ -12397,8 +12490,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="97"/>
-      <c r="B6" s="88" t="s">
+      <c r="A6" s="115"/>
+      <c r="B6" s="106" t="s">
         <v>581</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -12415,8 +12508,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="97"/>
-      <c r="B7" s="89" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="107" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -12425,16 +12518,16 @@
       <c r="D7" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="70" t="s">
         <v>524</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="70" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="97"/>
-      <c r="B8" s="89" t="s">
+      <c r="A8" s="115"/>
+      <c r="B8" s="107" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -12443,16 +12536,16 @@
       <c r="D8" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="70" t="s">
         <v>524</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="70" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="97"/>
-      <c r="B9" s="90" t="s">
+      <c r="A9" s="115"/>
+      <c r="B9" s="108" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -12469,8 +12562,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="97"/>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="115"/>
+      <c r="B10" s="106" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -12487,8 +12580,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="97"/>
-      <c r="B11" s="89" t="s">
+      <c r="A11" s="115"/>
+      <c r="B11" s="107" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -12505,8 +12598,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="97"/>
-      <c r="B12" s="89" t="s">
+      <c r="A12" s="115"/>
+      <c r="B12" s="107" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -12523,8 +12616,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="97"/>
-      <c r="B13" s="90" t="s">
+      <c r="A13" s="115"/>
+      <c r="B13" s="108" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -12540,9 +12633,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="98"/>
-      <c r="B14" s="41" t="s">
+    <row r="14" spans="1:6" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="116"/>
+      <c r="B14" s="40" t="s">
         <v>507</v>
       </c>
       <c r="C14" s="18"/>
@@ -12557,10 +12650,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="113" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -12577,8 +12670,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="97"/>
-      <c r="B16" s="89" t="s">
+      <c r="A16" s="115"/>
+      <c r="B16" s="107" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -12595,8 +12688,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="97"/>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="115"/>
+      <c r="B17" s="107" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -12613,8 +12706,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="97"/>
-      <c r="B18" s="90" t="s">
+      <c r="A18" s="115"/>
+      <c r="B18" s="108" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -12631,8 +12724,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="97"/>
-      <c r="B19" s="88" t="s">
+      <c r="A19" s="115"/>
+      <c r="B19" s="106" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -12649,8 +12742,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="97"/>
-      <c r="B20" s="89" t="s">
+      <c r="A20" s="115"/>
+      <c r="B20" s="107" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -12667,8 +12760,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="97"/>
-      <c r="B21" s="89" t="s">
+      <c r="A21" s="115"/>
+      <c r="B21" s="107" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -12685,8 +12778,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="97"/>
-      <c r="B22" s="90" t="s">
+      <c r="A22" s="115"/>
+      <c r="B22" s="108" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -12703,8 +12796,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="97"/>
-      <c r="B23" s="88" t="s">
+      <c r="A23" s="115"/>
+      <c r="B23" s="106" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -12721,8 +12814,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="97"/>
-      <c r="B24" s="89" t="s">
+      <c r="A24" s="115"/>
+      <c r="B24" s="107" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -12739,8 +12832,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="97"/>
-      <c r="B25" s="89" t="s">
+      <c r="A25" s="115"/>
+      <c r="B25" s="107" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -12757,8 +12850,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="97"/>
-      <c r="B26" s="90" t="s">
+      <c r="A26" s="115"/>
+      <c r="B26" s="108" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -12774,9 +12867,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="98"/>
-      <c r="B27" s="41" t="s">
+    <row r="27" spans="1:6" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="116"/>
+      <c r="B27" s="40" t="s">
         <v>505</v>
       </c>
       <c r="C27" s="18"/>
@@ -12791,10 +12884,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="96" t="s">
+      <c r="A28" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="113" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -12811,8 +12904,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="97"/>
-      <c r="B29" s="89" t="s">
+      <c r="A29" s="115"/>
+      <c r="B29" s="107" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -12829,8 +12922,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="97"/>
-      <c r="B30" s="89" t="s">
+      <c r="A30" s="115"/>
+      <c r="B30" s="107" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -12847,8 +12940,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="97"/>
-      <c r="B31" s="90" t="s">
+      <c r="A31" s="115"/>
+      <c r="B31" s="108" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -12865,8 +12958,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="97"/>
-      <c r="B32" s="88" t="s">
+      <c r="A32" s="115"/>
+      <c r="B32" s="106" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -12883,8 +12976,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="97"/>
-      <c r="B33" s="89" t="s">
+      <c r="A33" s="115"/>
+      <c r="B33" s="107" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -12901,8 +12994,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="97"/>
-      <c r="B34" s="89" t="s">
+      <c r="A34" s="115"/>
+      <c r="B34" s="107" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -12919,8 +13012,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="97"/>
-      <c r="B35" s="90" t="s">
+      <c r="A35" s="115"/>
+      <c r="B35" s="108" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -12937,8 +13030,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="97"/>
-      <c r="B36" s="88" t="s">
+      <c r="A36" s="115"/>
+      <c r="B36" s="106" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -12955,8 +13048,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="97"/>
-      <c r="B37" s="89" t="s">
+      <c r="A37" s="115"/>
+      <c r="B37" s="107" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -12973,8 +13066,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="97"/>
-      <c r="B38" s="89" t="s">
+      <c r="A38" s="115"/>
+      <c r="B38" s="107" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="13" t="s">
@@ -12992,8 +13085,8 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="97"/>
-      <c r="B39" s="90" t="s">
+      <c r="A39" s="115"/>
+      <c r="B39" s="108" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -13009,9 +13102,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="98"/>
-      <c r="B40" s="41" t="s">
+    <row r="40" spans="1:9" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="116"/>
+      <c r="B40" s="40" t="s">
         <v>506</v>
       </c>
       <c r="C40" s="18"/>
